--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 3\NaCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\NaCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58738E-FD2F-4A58-9D18-D139B9924802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F408011F-8066-4DB0-BD22-24E94879216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Graph - Paper" sheetId="2" r:id="rId1"/>
@@ -5649,26 +5649,30 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Temperature</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> vs Ø for NaCl n=3</a:t>
+              <a:t>Fig 1. Temperature vs Ø for NaCl n=3</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21945393518518519"/>
+          <c:y val="0.91428495370370377"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5682,11 +5686,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -7155,17 +7159,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
               </a:p>
@@ -7184,11 +7188,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -7216,11 +7220,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -7246,11 +7250,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -7275,11 +7279,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -7306,11 +7310,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -7338,10 +7342,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14324982475016709"/>
-          <c:y val="0.17110932815862473"/>
-          <c:w val="0.29683348005412369"/>
-          <c:h val="0.13378798621736263"/>
+          <c:x val="0.16735671296296295"/>
+          <c:y val="0.11613796296296296"/>
+          <c:w val="0.34686226851851854"/>
+          <c:h val="0.13381458333333332"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7361,9 +7365,9 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -7403,7 +7407,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7437,15 +7446,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Fig 2.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-IN"/>
               <a:t>Parity Plot for NaCl for n=3</a:t>
@@ -7453,6 +7470,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25009097222222215"/>
+          <c:y val="0.92171620370370366"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7466,11 +7491,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -7481,7 +7506,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12206111111111111"/>
+          <c:y val="7.586368312757201E-2"/>
+          <c:w val="0.83852708333333337"/>
+          <c:h val="0.69914248971193416"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7885,6 +7920,7 @@
         <c:axId val="1338956095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7895,11 +7931,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -7924,11 +7960,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -7955,11 +7991,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -7970,6 +8006,7 @@
         <c:crossAx val="1309551663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1309551663"/>
@@ -7985,11 +8022,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -8014,11 +8051,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -8045,11 +8082,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -8102,7 +8139,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -12103,16 +12145,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13229,16 +13271,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>510541</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>30478</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>521970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>137161</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>83278</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13311,16 +13353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13335,8 +13377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36019740" y="2087880"/>
-          <a:ext cx="1310640" cy="419100"/>
+          <a:off x="35943540" y="2065020"/>
+          <a:ext cx="1287780" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13369,27 +13411,27 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>          Data Points</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>          Parity</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN" sz="1000" baseline="0">
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> line</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1000">
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -13462,15 +13504,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13485,7 +13527,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36095940" y="2385060"/>
+          <a:off x="36065460" y="2369820"/>
           <a:ext cx="266700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -13516,12 +13558,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10386</cdr:x>
-      <cdr:y>0.1295</cdr:y>
+      <cdr:x>0.12134</cdr:x>
+      <cdr:y>0.07663</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96272</cdr:x>
-      <cdr:y>0.85589</cdr:y>
+      <cdr:x>0.95816</cdr:x>
+      <cdr:y>0.77294</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -13536,8 +13578,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="594359" y="506730"/>
-          <a:ext cx="4914900" cy="2842260"/>
+          <a:off x="662941" y="308610"/>
+          <a:ext cx="4572000" cy="2804160"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -17843,8 +17885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
   <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19497,8 +19539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
   <dimension ref="A1:AR62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF19" sqref="BF19"/>
+    <sheetView tabSelected="1" topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD8" sqref="BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27183,6 +27225,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27405,7 +27455,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -27414,15 +27464,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27441,27 +27500,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\NaCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F408011F-8066-4DB0-BD22-24E94879216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F408011F-8066-4DB0-BD22-24E94879216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F07F5754-144F-4F9B-A285-6CC93F97DE80}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Graph - Paper" sheetId="2" r:id="rId1"/>
@@ -7202,8 +7202,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7293,8 +7293,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7512,7 +7512,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12206111111111111"/>
-          <c:y val="7.586368312757201E-2"/>
+          <c:y val="7.2943592054649009E-2"/>
           <c:w val="0.83852708333333337"/>
           <c:h val="0.69914248971193416"/>
         </c:manualLayout>
@@ -7905,6 +7905,139 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Finding 12 unknown -corrected'!$AT$7:$AT$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Finding 12 unknown -corrected'!$AU$7:$AU$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49F8-4734-B01C-55B3B9898E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7921,6 +8054,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7973,9 +8107,9 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8012,6 +8146,7 @@
         <c:axId val="1309551663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8065,8 +8200,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8095,7 +8230,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1338956095"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -8154,7 +8289,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -13271,16 +13405,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>30478</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>43178</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>521970</xdr:rowOff>
+      <xdr:rowOff>350520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>83278</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102330</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>95978</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13351,257 +13485,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D2472E-199D-320F-B4B5-D1FD5AE9ECE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35943540" y="2065020"/>
-          <a:ext cx="1287780" cy="502920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100">
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>          Data Points</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100">
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>          Parity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" baseline="0">
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100">
-            <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Flowchart: Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B5EC8-04A5-5479-1631-A054C1A0BE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36134040" y="2141220"/>
-          <a:ext cx="114300" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A39F19-756A-7990-29C5-A2A7C49E180A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36065460" y="2369820"/>
-          <a:ext cx="266700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.12134</cdr:x>
-      <cdr:y>0.07663</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95816</cdr:x>
-      <cdr:y>0.77294</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306D2361-BBF4-B62C-1A1C-8892ED11C9E6}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="662941" y="308610"/>
-          <a:ext cx="4572000" cy="2804160"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14036,9 +13924,9 @@
       <selection sqref="A1:B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.166354</v>
       </c>
@@ -14046,7 +13934,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.161664</v>
       </c>
@@ -14054,7 +13942,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.15679399999999999</v>
       </c>
@@ -14062,7 +13950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.15174399999999999</v>
       </c>
@@ -14070,7 +13958,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.14651500000000001</v>
       </c>
@@ -14078,7 +13966,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.14110500000000001</v>
       </c>
@@ -14086,7 +13974,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.135515</v>
       </c>
@@ -14094,7 +13982,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.129746</v>
       </c>
@@ -14102,7 +13990,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.123796</v>
       </c>
@@ -14110,7 +13998,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.11766699999999999</v>
       </c>
@@ -14118,7 +14006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.111357</v>
       </c>
@@ -14126,7 +14014,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -14134,7 +14022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -14142,7 +14030,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.5022500000000006E-2</v>
       </c>
@@ -14150,7 +14038,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -14158,7 +14046,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -14166,7 +14054,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -14174,7 +14062,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -14182,7 +14070,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.04365E-2</v>
       </c>
@@ -14190,7 +14078,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.66723E-2</v>
       </c>
@@ -14198,7 +14086,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.8449499999999998E-2</v>
       </c>
@@ -14206,7 +14094,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.9701600000000002E-2</v>
       </c>
@@ -14214,7 +14102,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.1536199999999998E-2</v>
       </c>
@@ -14222,7 +14110,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.2898099999999999E-2</v>
       </c>
@@ -14230,7 +14118,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16370000000000001</v>
       </c>
@@ -14238,7 +14126,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.15389</v>
       </c>
@@ -14246,7 +14134,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.15493499999999999</v>
       </c>
@@ -14254,7 +14142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.155998</v>
       </c>
@@ -14262,7 +14150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.157079</v>
       </c>
@@ -14270,7 +14158,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.15817800000000001</v>
       </c>
@@ -14278,7 +14166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.15929499999999999</v>
       </c>
@@ -14286,7 +14174,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.16042999999999999</v>
       </c>
@@ -14294,7 +14182,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.161583</v>
       </c>
@@ -14302,7 +14190,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.16561600000000001</v>
       </c>
@@ -14310,7 +14198,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.16514999999999999</v>
       </c>
@@ -14318,7 +14206,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.168878</v>
       </c>
@@ -14326,7 +14214,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.170157</v>
       </c>
@@ -14334,7 +14222,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.17276900000000001</v>
       </c>
@@ -14342,7 +14230,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.17410200000000001</v>
       </c>
@@ -14350,7 +14238,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.175453</v>
       </c>
@@ -14358,7 +14246,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.17682200000000001</v>
       </c>
@@ -14366,7 +14254,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.17820900000000001</v>
       </c>
@@ -14374,7 +14262,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.179614</v>
       </c>
@@ -14382,7 +14270,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.185054</v>
       </c>
@@ -14390,7 +14278,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18490500000000001</v>
       </c>
@@ -14398,7 +14286,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18493999999999999</v>
       </c>
@@ -14406,7 +14294,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.18501300000000001</v>
       </c>
@@ -14414,7 +14302,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185053</v>
       </c>
@@ -14422,7 +14310,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.185136</v>
       </c>
@@ -14430,7 +14318,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18518000000000001</v>
       </c>
@@ -14438,7 +14326,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.185225</v>
       </c>
@@ -14446,7 +14334,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.18527299999999999</v>
       </c>
@@ -14454,7 +14342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18532100000000001</v>
       </c>
@@ -14462,7 +14350,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18542400000000001</v>
       </c>
@@ -14470,7 +14358,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.185477</v>
       </c>
@@ -14478,7 +14366,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.185533</v>
       </c>
@@ -14486,7 +14374,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18532199999999999</v>
       </c>
@@ -14494,7 +14382,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18564800000000001</v>
       </c>
@@ -14502,7 +14390,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.18570800000000001</v>
       </c>
@@ -14510,7 +14398,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18576899999999999</v>
       </c>
@@ -14518,7 +14406,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.185833</v>
       </c>
@@ -14526,7 +14414,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.18589700000000001</v>
       </c>
@@ -14534,7 +14422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186032</v>
       </c>
@@ -14542,7 +14430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18610099999999999</v>
       </c>
@@ -14550,7 +14438,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18617300000000001</v>
       </c>
@@ -14558,7 +14446,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18624499999999999</v>
       </c>
@@ -14566,7 +14454,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.186473</v>
       </c>
@@ -14574,7 +14462,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.186553</v>
       </c>
@@ -14582,7 +14470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.18671599999999999</v>
       </c>
@@ -14590,7 +14478,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18706100000000001</v>
       </c>
@@ -14598,7 +14486,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18715200000000001</v>
       </c>
@@ -14606,7 +14494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.18724399999999999</v>
       </c>
@@ -14614,7 +14502,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18732599999999999</v>
       </c>
@@ -14622,7 +14510,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18743299999999999</v>
       </c>
@@ -14630,7 +14518,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.187529</v>
       </c>
@@ -14638,7 +14526,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.18772800000000001</v>
       </c>
@@ -14646,7 +14534,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.187829</v>
       </c>
@@ -14654,7 +14542,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.188252</v>
       </c>
@@ -14662,7 +14550,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.188361</v>
       </c>
@@ -14670,7 +14558,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.188585</v>
       </c>
@@ -14678,7 +14566,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18870000000000001</v>
       </c>
@@ -14686,7 +14574,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18881600000000001</v>
       </c>
@@ -14694,7 +14582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.18893299999999999</v>
       </c>
@@ -14702,7 +14590,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.189053</v>
       </c>
@@ -14710,7 +14598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.18917300000000001</v>
       </c>
@@ -14718,7 +14606,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.18942000000000001</v>
       </c>
@@ -14726,7 +14614,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.18954499999999999</v>
       </c>
@@ -14734,7 +14622,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.18967200000000001</v>
       </c>
@@ -14742,7 +14630,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.189801</v>
       </c>
@@ -14750,7 +14638,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.18993199999999999</v>
       </c>
@@ -14758,7 +14646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19006400000000001</v>
       </c>
@@ -14766,7 +14654,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.190197</v>
       </c>
@@ -14774,7 +14662,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.188471</v>
       </c>
@@ -14782,7 +14670,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.190469</v>
       </c>
@@ -14790,7 +14678,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.190608</v>
       </c>
@@ -14798,7 +14686,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.190748</v>
       </c>
@@ -14806,7 +14694,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.190889</v>
       </c>
@@ -14814,7 +14702,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19117700000000001</v>
       </c>
@@ -14822,7 +14710,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19132399999999999</v>
       </c>
@@ -14830,7 +14718,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.191472</v>
       </c>
@@ -14838,7 +14726,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19192500000000001</v>
       </c>
@@ -14846,7 +14734,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.192713</v>
       </c>
@@ -14854,7 +14742,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19287599999999999</v>
       </c>
@@ -14862,7 +14750,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.19303999999999999</v>
       </c>
@@ -14870,7 +14758,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19320499999999999</v>
       </c>
@@ -14878,7 +14766,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.19354099999999999</v>
       </c>
@@ -14886,7 +14774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.193712</v>
       </c>
@@ -14894,7 +14782,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.193884</v>
       </c>
@@ -14902,7 +14790,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.19405700000000001</v>
       </c>
@@ -14910,7 +14798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.19423199999999999</v>
       </c>
@@ -14918,7 +14806,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.194409</v>
       </c>
@@ -14926,7 +14814,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.19458700000000001</v>
       </c>
@@ -14934,7 +14822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.194767</v>
       </c>
@@ -14942,7 +14830,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.19494900000000001</v>
       </c>
@@ -14950,7 +14838,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.195132</v>
       </c>
@@ -14958,7 +14846,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19531699999999999</v>
       </c>
@@ -14966,7 +14854,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.19550300000000001</v>
       </c>
@@ -14974,7 +14862,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.195881</v>
       </c>
@@ -14982,7 +14870,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.196072</v>
       </c>
@@ -14990,7 +14878,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.196265</v>
       </c>
@@ -14998,7 +14886,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19645899999999999</v>
       </c>
@@ -15006,7 +14894,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.196655</v>
       </c>
@@ -15014,7 +14902,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.196853</v>
       </c>
@@ -15022,7 +14910,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.19725300000000001</v>
       </c>
@@ -15030,7 +14918,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.19745499999999999</v>
       </c>
@@ -15038,7 +14926,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.197659</v>
       </c>
@@ -15046,7 +14934,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.19786500000000001</v>
       </c>
@@ -15054,7 +14942,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.198072</v>
       </c>
@@ -15062,7 +14950,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.19828100000000001</v>
       </c>
@@ -15070,7 +14958,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.198491</v>
       </c>
@@ -15078,7 +14966,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.19870299999999999</v>
       </c>
@@ -15086,7 +14974,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.19891700000000001</v>
       </c>
@@ -15094,7 +14982,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.199349</v>
       </c>
@@ -15102,7 +14990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.19956699999999999</v>
       </c>
@@ -15110,7 +14998,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20000899999999999</v>
       </c>
@@ -15118,7 +15006,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.20023199999999999</v>
       </c>
@@ -15126,7 +15014,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.20091100000000001</v>
       </c>
@@ -15134,7 +15022,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20114099999999999</v>
       </c>
@@ -15142,7 +15030,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.201372</v>
       </c>
@@ -15150,7 +15038,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20160500000000001</v>
       </c>
@@ -15158,7 +15046,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.20183899999999999</v>
       </c>
@@ -15166,7 +15054,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.202075</v>
       </c>
@@ -15174,7 +15062,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.20231299999999999</v>
       </c>
@@ -15182,7 +15070,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20303499999999999</v>
       </c>
@@ -15190,7 +15078,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.20352500000000001</v>
       </c>
@@ -15198,7 +15086,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.20377200000000001</v>
       </c>
@@ -15206,7 +15094,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.20427100000000001</v>
       </c>
@@ -15214,7 +15102,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.20452300000000001</v>
       </c>
@@ -15222,7 +15110,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.20477699999999999</v>
       </c>
@@ -15230,7 +15118,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.20503199999999999</v>
       </c>
@@ -15238,7 +15126,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.205289</v>
       </c>
@@ -15246,7 +15134,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.206069</v>
       </c>
@@ -15254,7 +15142,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.20633199999999999</v>
       </c>
@@ -15262,7 +15150,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.206597</v>
       </c>
@@ -15270,7 +15158,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.20713100000000001</v>
       </c>
@@ -15278,7 +15166,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.207401</v>
       </c>
@@ -15286,7 +15174,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.207672</v>
       </c>
@@ -15294,7 +15182,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.20821899999999999</v>
       </c>
@@ -15302,7 +15190,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.20849500000000001</v>
       </c>
@@ -15310,7 +15198,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.20877299999999999</v>
       </c>
@@ -15318,7 +15206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.20905199999999999</v>
       </c>
@@ -15326,7 +15214,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.20933299999999999</v>
       </c>
@@ -15334,7 +15222,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.209615</v>
       </c>
@@ -15342,7 +15230,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.209899</v>
       </c>
@@ -15350,7 +15238,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.21047199999999999</v>
       </c>
@@ -15358,7 +15246,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.21105099999999999</v>
       </c>
@@ -15366,7 +15254,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.21163599999999999</v>
       </c>
@@ -15374,7 +15262,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.21193200000000001</v>
       </c>
@@ -15382,7 +15270,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.21252699999999999</v>
       </c>
@@ -15390,7 +15278,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.21282699999999999</v>
       </c>
@@ -15398,7 +15286,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.21312800000000001</v>
       </c>
@@ -15406,7 +15294,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.21404300000000001</v>
       </c>
@@ -15414,7 +15302,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.214972</v>
       </c>
@@ -15422,7 +15310,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.215284</v>
       </c>
@@ -15430,7 +15318,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.21559900000000001</v>
       </c>
@@ -15438,7 +15326,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.21623200000000001</v>
       </c>
@@ -15446,7 +15334,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.21655199999999999</v>
       </c>
@@ -15454,7 +15342,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.21687200000000001</v>
       </c>
@@ -15462,7 +15350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.217195</v>
       </c>
@@ -15470,7 +15358,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.21751899999999999</v>
       </c>
@@ -15478,7 +15366,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.218171</v>
       </c>
@@ -15486,7 +15374,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.2185</v>
       </c>
@@ -15494,7 +15382,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.218831</v>
       </c>
@@ -15502,7 +15390,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.219163</v>
       </c>
@@ -15510,7 +15398,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.219831</v>
       </c>
@@ -15518,7 +15406,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.220168</v>
       </c>
@@ -15526,7 +15414,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22084699999999999</v>
       </c>
@@ -15534,7 +15422,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.221188</v>
       </c>
@@ -15542,7 +15430,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.221051</v>
       </c>
@@ -15550,7 +15438,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.22257099999999999</v>
       </c>
@@ -15558,7 +15446,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.22292000000000001</v>
       </c>
@@ -15566,7 +15454,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.22362399999999999</v>
       </c>
@@ -15574,7 +15462,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.22397800000000001</v>
       </c>
@@ -15582,7 +15470,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.224692</v>
       </c>
@@ -15590,7 +15478,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.225051</v>
       </c>
@@ -15598,7 +15486,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.225412</v>
       </c>
@@ -15606,7 +15494,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.225774</v>
       </c>
@@ -15614,7 +15502,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.22613800000000001</v>
       </c>
@@ -15622,7 +15510,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.224855</v>
       </c>
@@ -15630,7 +15518,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.22724</v>
       </c>
@@ -15638,7 +15526,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.22798199999999999</v>
       </c>
@@ -15646,7 +15534,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.228356</v>
       </c>
@@ -15654,7 +15542,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.22873099999999999</v>
       </c>
@@ -15662,7 +15550,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.22910800000000001</v>
       </c>
@@ -15670,7 +15558,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.229486</v>
       </c>
@@ -15678,7 +15566,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.22986599999999999</v>
       </c>
@@ -15700,12 +15588,12 @@
       <selection activeCell="J4" sqref="J4:K68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -15713,7 +15601,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.15353E-2</v>
       </c>
@@ -15730,7 +15618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.9703E-2</v>
       </c>
@@ -15738,7 +15626,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8424600000000003E-2</v>
       </c>
@@ -15764,7 +15652,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.66723E-2</v>
       </c>
@@ -15790,7 +15678,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -15816,7 +15704,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -15842,7 +15730,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -15868,7 +15756,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -15894,7 +15782,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1350200000000006E-2</v>
       </c>
@@ -15920,7 +15808,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -15946,7 +15834,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -15966,7 +15854,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.111357</v>
       </c>
@@ -15986,7 +15874,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.11766699999999999</v>
       </c>
@@ -16006,7 +15894,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.123796</v>
       </c>
@@ -16026,7 +15914,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.129746</v>
       </c>
@@ -16046,7 +15934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.135515</v>
       </c>
@@ -16066,7 +15954,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.14110500000000001</v>
       </c>
@@ -16086,7 +15974,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.14651500000000001</v>
       </c>
@@ -16106,7 +15994,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.15174399999999999</v>
       </c>
@@ -16126,7 +16014,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.16042999999999999</v>
       </c>
@@ -16146,7 +16034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.161583</v>
       </c>
@@ -16166,7 +16054,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.16275400000000001</v>
       </c>
@@ -16186,7 +16074,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.16394300000000001</v>
       </c>
@@ -16200,7 +16088,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16514999999999999</v>
       </c>
@@ -16214,7 +16102,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.166375</v>
       </c>
@@ -16228,7 +16116,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.16761699999999999</v>
       </c>
@@ -16242,7 +16130,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.170157</v>
       </c>
@@ -16259,7 +16147,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.171454</v>
       </c>
@@ -16273,7 +16161,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.17276900000000001</v>
       </c>
@@ -16287,7 +16175,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.17410200000000001</v>
       </c>
@@ -16301,7 +16189,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.175453</v>
       </c>
@@ -16315,7 +16203,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.17682200000000001</v>
       </c>
@@ -16329,7 +16217,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.179614</v>
       </c>
@@ -16343,7 +16231,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.179614</v>
       </c>
@@ -16357,7 +16245,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.184976</v>
       </c>
@@ -16371,7 +16259,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18501400000000001</v>
       </c>
@@ -16385,7 +16273,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.185053</v>
       </c>
@@ -16399,7 +16287,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.18509400000000001</v>
       </c>
@@ -16413,7 +16301,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.18518000000000001</v>
       </c>
@@ -16427,7 +16315,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.185226</v>
       </c>
@@ -16441,7 +16329,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.18527299999999999</v>
       </c>
@@ -16455,7 +16343,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18532199999999999</v>
       </c>
@@ -16469,7 +16357,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18537200000000001</v>
       </c>
@@ -16483,7 +16371,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18542400000000001</v>
       </c>
@@ -16497,7 +16385,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.185477</v>
       </c>
@@ -16511,7 +16399,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.185533</v>
       </c>
@@ -16525,7 +16413,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185589</v>
       </c>
@@ -16539,7 +16427,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.18564800000000001</v>
       </c>
@@ -16553,7 +16441,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18570800000000001</v>
       </c>
@@ -16567,7 +16455,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.18576899999999999</v>
       </c>
@@ -16581,7 +16469,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.185833</v>
       </c>
@@ -16595,7 +16483,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18589700000000001</v>
       </c>
@@ -16609,7 +16497,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18596399999999999</v>
       </c>
@@ -16623,7 +16511,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.18617300000000001</v>
       </c>
@@ -16637,7 +16525,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.18624499999999999</v>
       </c>
@@ -16651,7 +16539,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18632000000000001</v>
       </c>
@@ -16665,7 +16553,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18639600000000001</v>
       </c>
@@ -16679,7 +16567,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.186553</v>
       </c>
@@ -16693,7 +16581,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18671599999999999</v>
       </c>
@@ -16707,7 +16595,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.18679999999999999</v>
       </c>
@@ -16721,7 +16609,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.186885</v>
       </c>
@@ -16735,7 +16623,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186973</v>
       </c>
@@ -16749,7 +16637,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18706100000000001</v>
       </c>
@@ -16763,7 +16651,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18715200000000001</v>
       </c>
@@ -16777,7 +16665,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18724399999999999</v>
       </c>
@@ -16791,7 +16679,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.187337</v>
       </c>
@@ -16805,7 +16693,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.18743299999999999</v>
       </c>
@@ -16819,7 +16707,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.187529</v>
       </c>
@@ -16827,7 +16715,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18762799999999999</v>
       </c>
@@ -16835,7 +16723,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18772800000000001</v>
       </c>
@@ -16843,7 +16731,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.187829</v>
       </c>
@@ -16851,7 +16739,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18803700000000001</v>
       </c>
@@ -16859,7 +16747,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18814400000000001</v>
       </c>
@@ -16867,7 +16755,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.188252</v>
       </c>
@@ -16875,7 +16763,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.188585</v>
       </c>
@@ -16883,7 +16771,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.18870000000000001</v>
       </c>
@@ -16891,7 +16779,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.18893299999999999</v>
       </c>
@@ -16899,7 +16787,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.18929599999999999</v>
       </c>
@@ -16907,7 +16795,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.18942000000000001</v>
       </c>
@@ -16915,7 +16803,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18954499999999999</v>
       </c>
@@ -16923,7 +16811,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18967300000000001</v>
       </c>
@@ -16931,7 +16819,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.189801</v>
       </c>
@@ -16939,7 +16827,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.18993199999999999</v>
       </c>
@@ -16947,7 +16835,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.190197</v>
       </c>
@@ -16955,7 +16843,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.190333</v>
       </c>
@@ -16963,7 +16851,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.190748</v>
       </c>
@@ -16971,7 +16859,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.190889</v>
       </c>
@@ -16979,7 +16867,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.19103200000000001</v>
       </c>
@@ -16987,7 +16875,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.19117700000000001</v>
       </c>
@@ -16995,7 +16883,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19132399999999999</v>
       </c>
@@ -17003,7 +16891,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.19162100000000001</v>
       </c>
@@ -17011,7 +16899,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.191772</v>
       </c>
@@ -17019,7 +16907,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.19192500000000001</v>
       </c>
@@ -17027,7 +16915,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.19223599999999999</v>
       </c>
@@ -17035,7 +16923,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.19239300000000001</v>
       </c>
@@ -17043,7 +16931,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.19287599999999999</v>
       </c>
@@ -17051,7 +16939,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19303999999999999</v>
       </c>
@@ -17059,7 +16947,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19320499999999999</v>
       </c>
@@ -17067,7 +16955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.19337199999999999</v>
       </c>
@@ -17075,7 +16963,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19354099999999999</v>
       </c>
@@ -17083,7 +16971,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.193712</v>
       </c>
@@ -17091,7 +16979,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19423199999999999</v>
       </c>
@@ -17099,7 +16987,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.194409</v>
       </c>
@@ -17107,7 +16995,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19458800000000001</v>
       </c>
@@ -17115,7 +17003,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.195132</v>
       </c>
@@ -17123,7 +17011,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.19531699999999999</v>
       </c>
@@ -17131,7 +17019,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.19569300000000001</v>
       </c>
@@ -17139,7 +17027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.195881</v>
       </c>
@@ -17147,7 +17035,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.196072</v>
       </c>
@@ -17155,7 +17043,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.19645899999999999</v>
       </c>
@@ -17163,7 +17051,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.196655</v>
       </c>
@@ -17171,7 +17059,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.19745499999999999</v>
       </c>
@@ -17179,7 +17067,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.197659</v>
       </c>
@@ -17187,7 +17075,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.19786500000000001</v>
       </c>
@@ -17195,7 +17083,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19828100000000001</v>
       </c>
@@ -17203,7 +17091,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.198491</v>
       </c>
@@ -17211,7 +17099,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.19870299999999999</v>
       </c>
@@ -17219,7 +17107,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.199349</v>
       </c>
@@ -17227,7 +17115,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.19956699999999999</v>
       </c>
@@ -17235,7 +17123,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19978699999999999</v>
       </c>
@@ -17243,7 +17131,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.20000899999999999</v>
       </c>
@@ -17251,7 +17139,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.20023199999999999</v>
       </c>
@@ -17259,7 +17147,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.200457</v>
       </c>
@@ -17267,7 +17155,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.200683</v>
       </c>
@@ -17275,7 +17163,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.20091100000000001</v>
       </c>
@@ -17283,7 +17171,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.20114099999999999</v>
       </c>
@@ -17291,7 +17179,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.201372</v>
       </c>
@@ -17299,7 +17187,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.202075</v>
       </c>
@@ -17307,7 +17195,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.20231299999999999</v>
       </c>
@@ -17315,7 +17203,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.20255200000000001</v>
       </c>
@@ -17323,7 +17211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.20352500000000001</v>
       </c>
@@ -17331,7 +17219,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.20377200000000001</v>
       </c>
@@ -17339,7 +17227,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.20477699999999999</v>
       </c>
@@ -17347,7 +17235,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20503199999999999</v>
       </c>
@@ -17355,7 +17243,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.205289</v>
       </c>
@@ -17363,7 +17251,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.206069</v>
       </c>
@@ -17371,7 +17259,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20633199999999999</v>
       </c>
@@ -17379,7 +17267,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.20686299999999999</v>
       </c>
@@ -17387,7 +17275,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20713100000000001</v>
       </c>
@@ -17395,7 +17283,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.207401</v>
       </c>
@@ -17403,7 +17291,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.207672</v>
       </c>
@@ -17411,7 +17299,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.20794499999999999</v>
       </c>
@@ -17419,7 +17307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20849500000000001</v>
       </c>
@@ -17427,7 +17315,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.20905199999999999</v>
       </c>
@@ -17435,7 +17323,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.209615</v>
       </c>
@@ -17443,7 +17331,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.209899</v>
       </c>
@@ -17451,7 +17339,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.21018500000000001</v>
       </c>
@@ -17459,7 +17347,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.21105099999999999</v>
       </c>
@@ -17467,7 +17355,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.21134500000000001</v>
       </c>
@@ -17475,7 +17363,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.21163699999999999</v>
       </c>
@@ -17483,7 +17371,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.21193200000000001</v>
       </c>
@@ -17491,7 +17379,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.21252699999999999</v>
       </c>
@@ -17499,7 +17387,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.21282699999999999</v>
       </c>
@@ -17507,7 +17395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.21343200000000001</v>
       </c>
@@ -17515,7 +17403,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.21373600000000001</v>
       </c>
@@ -17523,7 +17411,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.21435100000000001</v>
       </c>
@@ -17531,7 +17419,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.21465999999999999</v>
       </c>
@@ -17539,7 +17427,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.214972</v>
       </c>
@@ -17547,7 +17435,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.215284</v>
       </c>
@@ -17555,7 +17443,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.21559900000000001</v>
       </c>
@@ -17563,7 +17451,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.21623200000000001</v>
       </c>
@@ -17571,7 +17459,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.21655199999999999</v>
       </c>
@@ -17579,7 +17467,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.21687200000000001</v>
       </c>
@@ -17587,7 +17475,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.217195</v>
       </c>
@@ -17595,7 +17483,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.21784400000000001</v>
       </c>
@@ -17603,7 +17491,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.218171</v>
       </c>
@@ -17611,7 +17499,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.2185</v>
       </c>
@@ -17619,7 +17507,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.219163</v>
       </c>
@@ -17627,7 +17515,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.219496</v>
       </c>
@@ -17635,7 +17523,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.220168</v>
       </c>
@@ -17643,7 +17531,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.22050700000000001</v>
       </c>
@@ -17651,7 +17539,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.221188</v>
       </c>
@@ -17659,7 +17547,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.22153100000000001</v>
       </c>
@@ -17667,7 +17555,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.22187599999999999</v>
       </c>
@@ -17675,7 +17563,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.222223</v>
       </c>
@@ -17683,7 +17571,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.22257099999999999</v>
       </c>
@@ -17691,7 +17579,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.22292000000000001</v>
       </c>
@@ -17699,7 +17587,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.223271</v>
       </c>
@@ -17707,7 +17595,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.22362399999999999</v>
       </c>
@@ -17715,7 +17603,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.22397900000000001</v>
       </c>
@@ -17723,7 +17611,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.22433400000000001</v>
       </c>
@@ -17731,7 +17619,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.224692</v>
       </c>
@@ -17739,7 +17627,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.225412</v>
       </c>
@@ -17747,7 +17635,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.225774</v>
       </c>
@@ -17755,7 +17643,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.22613800000000001</v>
       </c>
@@ -17763,7 +17651,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22650400000000001</v>
       </c>
@@ -17771,7 +17659,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.22687099999999999</v>
       </c>
@@ -17779,7 +17667,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.22761000000000001</v>
       </c>
@@ -17787,7 +17675,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.229051</v>
       </c>
@@ -17795,7 +17683,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.228356</v>
       </c>
@@ -17803,7 +17691,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.22910800000000001</v>
       </c>
@@ -17811,7 +17699,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.229486</v>
       </c>
@@ -17819,7 +17707,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.22986599999999999</v>
       </c>
@@ -17827,7 +17715,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.23024800000000001</v>
       </c>
@@ -17835,7 +17723,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.230631</v>
       </c>
@@ -17843,7 +17731,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.231016</v>
       </c>
@@ -17851,7 +17739,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.23179</v>
       </c>
@@ -17859,7 +17747,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.23218</v>
       </c>
@@ -17867,7 +17755,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.23335800000000001</v>
       </c>
@@ -17885,13 +17773,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
   <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.161657</v>
       </c>
@@ -17906,7 +17794,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.14164399999999999</v>
       </c>
@@ -17920,7 +17808,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.15173700000000001</v>
       </c>
@@ -17936,7 +17824,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.125199</v>
       </c>
@@ -17950,7 +17838,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9.7041600000000006E-2</v>
       </c>
@@ -17964,7 +17852,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.12973899999999999</v>
       </c>
@@ -17978,7 +17866,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.9117900000000005E-2</v>
       </c>
@@ -17992,7 +17880,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.101581</v>
       </c>
@@ -18006,7 +17894,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.104861</v>
       </c>
@@ -18020,7 +17908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.9336499999999994E-2</v>
       </c>
@@ -18034,7 +17922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7.7680799999999994E-2</v>
       </c>
@@ -18048,7 +17936,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6.9713899999999995E-2</v>
       </c>
@@ -18062,7 +17950,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6.2144999999999999E-2</v>
       </c>
@@ -18076,7 +17964,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5.4396300000000002E-2</v>
       </c>
@@ -18090,7 +17978,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5.4966099999999997E-2</v>
       </c>
@@ -18104,7 +17992,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.40091E-2</v>
       </c>
@@ -18118,7 +18006,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.0074199999999999E-2</v>
       </c>
@@ -18132,7 +18020,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.1610899999999999E-2</v>
       </c>
@@ -18146,7 +18034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.29763E-2</v>
       </c>
@@ -18160,7 +18048,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.15817100000000001</v>
       </c>
@@ -18174,7 +18062,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.15928800000000001</v>
       </c>
@@ -18188,7 +18076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.16042300000000001</v>
       </c>
@@ -18202,7 +18090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.163936</v>
       </c>
@@ -18216,7 +18104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.16245799999999999</v>
       </c>
@@ -18230,7 +18118,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16636699999999999</v>
       </c>
@@ -18244,7 +18132,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.16761000000000001</v>
       </c>
@@ -18258,7 +18146,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.16887099999999999</v>
       </c>
@@ -18272,7 +18160,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.18504399999999999</v>
       </c>
@@ -18286,7 +18174,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.18512799999999999</v>
       </c>
@@ -18300,7 +18188,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.18546899999999999</v>
       </c>
@@ -18314,7 +18202,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.18552399999999999</v>
       </c>
@@ -18328,7 +18216,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.187198</v>
       </c>
@@ -18336,7 +18224,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.1857</v>
       </c>
@@ -18344,7 +18232,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.18576100000000001</v>
       </c>
@@ -18352,7 +18240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.186164</v>
       </c>
@@ -18362,7 +18250,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.18631200000000001</v>
       </c>
@@ -18370,7 +18258,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18654399999999999</v>
       </c>
@@ -18386,7 +18274,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.18687699999999999</v>
       </c>
@@ -18400,7 +18288,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.187053</v>
       </c>
@@ -18414,7 +18302,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.187329</v>
       </c>
@@ -18428,7 +18316,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.18752099999999999</v>
       </c>
@@ -18436,7 +18324,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.187719</v>
       </c>
@@ -18444,7 +18332,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18782099999999999</v>
       </c>
@@ -18452,7 +18340,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18892500000000001</v>
       </c>
@@ -18460,7 +18348,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18904399999999999</v>
       </c>
@@ -18468,7 +18356,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18953700000000001</v>
       </c>
@@ -18476,7 +18364,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.189664</v>
       </c>
@@ -18490,7 +18378,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.19361200000000001</v>
       </c>
@@ -18504,7 +18392,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.190881</v>
       </c>
@@ -18518,7 +18406,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.19131500000000001</v>
       </c>
@@ -18532,7 +18420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.19146299999999999</v>
       </c>
@@ -18540,7 +18428,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.19526099999999999</v>
       </c>
@@ -18548,7 +18436,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.19254299999999999</v>
       </c>
@@ -18556,7 +18444,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.19495999999999999</v>
       </c>
@@ -18564,7 +18452,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.19442699999999999</v>
       </c>
@@ -18572,7 +18460,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.194048</v>
       </c>
@@ -18586,7 +18474,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.19611300000000001</v>
       </c>
@@ -18600,7 +18488,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.19606299999999999</v>
       </c>
@@ -18614,7 +18502,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.19684399999999999</v>
       </c>
@@ -18628,7 +18516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.197043</v>
       </c>
@@ -18642,7 +18530,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.19764999999999999</v>
       </c>
@@ -18656,7 +18544,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.19806299999999999</v>
       </c>
@@ -18670,7 +18558,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.19955800000000001</v>
       </c>
@@ -18684,7 +18572,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.20044699999999999</v>
       </c>
@@ -18698,7 +18586,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.20182900000000001</v>
       </c>
@@ -18712,7 +18600,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.203762</v>
       </c>
@@ -18720,7 +18608,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.20502100000000001</v>
       </c>
@@ -18728,7 +18616,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.20605799999999999</v>
       </c>
@@ -18736,7 +18624,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.20685200000000001</v>
       </c>
@@ -18744,7 +18632,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.20738999999999999</v>
       </c>
@@ -18752,7 +18640,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.208484</v>
       </c>
@@ -18766,7 +18654,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.20932100000000001</v>
       </c>
@@ -18780,7 +18668,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.21162500000000001</v>
       </c>
@@ -18794,7 +18682,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.212815</v>
       </c>
@@ -18808,7 +18696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.213419</v>
       </c>
@@ -18822,7 +18710,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.21612899999999999</v>
       </c>
@@ -18836,7 +18724,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.215586</v>
       </c>
@@ -18850,7 +18738,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.21590200000000001</v>
       </c>
@@ -18864,7 +18752,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.21718100000000001</v>
       </c>
@@ -18878,7 +18766,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.21948200000000001</v>
       </c>
@@ -18886,7 +18774,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.22015399999999999</v>
       </c>
@@ -18894,7 +18782,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.22117300000000001</v>
       </c>
@@ -18902,7 +18790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.22220699999999999</v>
       </c>
@@ -18910,7 +18798,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.22290499999999999</v>
       </c>
@@ -18918,7 +18806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.22325600000000001</v>
       </c>
@@ -18932,7 +18820,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.22396199999999999</v>
       </c>
@@ -18946,7 +18834,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.22431799999999999</v>
       </c>
@@ -18960,7 +18848,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.22941800000000001</v>
       </c>
@@ -18974,7 +18862,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.226854</v>
       </c>
@@ -18988,7 +18876,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.22759199999999999</v>
       </c>
@@ -19002,7 +18890,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.22256300000000001</v>
       </c>
@@ -19016,7 +18904,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.229467</v>
       </c>
@@ -19024,7 +18912,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.19223599999999999</v>
       </c>
@@ -19032,7 +18920,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.19239300000000001</v>
       </c>
@@ -19040,7 +18928,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.19287599999999999</v>
       </c>
@@ -19048,7 +18936,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.19303999999999999</v>
       </c>
@@ -19056,7 +18944,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.19320499999999999</v>
       </c>
@@ -19064,7 +18952,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.19337199999999999</v>
       </c>
@@ -19072,7 +18960,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.195132</v>
       </c>
@@ -19080,7 +18968,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.19531699999999999</v>
       </c>
@@ -19088,7 +18976,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.19569300000000001</v>
       </c>
@@ -19096,7 +18984,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.195881</v>
       </c>
@@ -19104,7 +18992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.196072</v>
       </c>
@@ -19112,7 +19000,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.19645899999999999</v>
       </c>
@@ -19120,7 +19008,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.196655</v>
       </c>
@@ -19128,7 +19016,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.19745499999999999</v>
       </c>
@@ -19136,7 +19024,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.19956699999999999</v>
       </c>
@@ -19144,7 +19032,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.19978699999999999</v>
       </c>
@@ -19152,7 +19040,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.20000899999999999</v>
       </c>
@@ -19160,7 +19048,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.20023199999999999</v>
       </c>
@@ -19168,7 +19056,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.200457</v>
       </c>
@@ -19176,7 +19064,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.200683</v>
       </c>
@@ -19184,7 +19072,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.20091100000000001</v>
       </c>
@@ -19192,7 +19080,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.20114099999999999</v>
       </c>
@@ -19200,7 +19088,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.201372</v>
       </c>
@@ -19208,7 +19096,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.20377200000000001</v>
       </c>
@@ -19216,7 +19104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.20477699999999999</v>
       </c>
@@ -19224,7 +19112,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.20713100000000001</v>
       </c>
@@ -19232,7 +19120,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.207401</v>
       </c>
@@ -19240,7 +19128,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.207672</v>
       </c>
@@ -19248,7 +19136,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.20794499999999999</v>
       </c>
@@ -19256,7 +19144,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.20849500000000001</v>
       </c>
@@ -19264,7 +19152,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.21134500000000001</v>
       </c>
@@ -19272,7 +19160,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.21163699999999999</v>
       </c>
@@ -19280,7 +19168,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.21193200000000001</v>
       </c>
@@ -19288,7 +19176,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.21252699999999999</v>
       </c>
@@ -19296,7 +19184,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.21282699999999999</v>
       </c>
@@ -19304,7 +19192,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.21343200000000001</v>
       </c>
@@ -19312,7 +19200,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.21373600000000001</v>
       </c>
@@ -19320,7 +19208,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.21655199999999999</v>
       </c>
@@ -19328,7 +19216,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.21687200000000001</v>
       </c>
@@ -19336,7 +19224,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.217195</v>
       </c>
@@ -19344,7 +19232,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.21784400000000001</v>
       </c>
@@ -19352,7 +19240,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.218171</v>
       </c>
@@ -19360,7 +19248,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.2185</v>
       </c>
@@ -19368,7 +19256,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.219163</v>
       </c>
@@ -19376,7 +19264,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.219496</v>
       </c>
@@ -19384,7 +19272,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.220168</v>
       </c>
@@ -19392,7 +19280,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176">
         <v>0.222223</v>
       </c>
@@ -19400,7 +19288,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.22257099999999999</v>
       </c>
@@ -19408,7 +19296,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.22292000000000001</v>
       </c>
@@ -19416,7 +19304,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181">
         <v>0.22397900000000001</v>
       </c>
@@ -19424,7 +19312,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.22433400000000001</v>
       </c>
@@ -19432,7 +19320,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.224692</v>
       </c>
@@ -19440,7 +19328,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.225412</v>
       </c>
@@ -19448,7 +19336,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.225774</v>
       </c>
@@ -19456,7 +19344,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D188">
         <v>0.22687099999999999</v>
       </c>
@@ -19464,7 +19352,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.22761000000000001</v>
       </c>
@@ -19472,7 +19360,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.229051</v>
       </c>
@@ -19480,7 +19368,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.228356</v>
       </c>
@@ -19488,7 +19376,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D194">
         <v>0.22986599999999999</v>
       </c>
@@ -19496,7 +19384,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.23024800000000001</v>
       </c>
@@ -19504,7 +19392,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D198">
         <v>0.23179</v>
       </c>
@@ -19512,7 +19400,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.23218</v>
       </c>
@@ -19520,7 +19408,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.23335800000000001</v>
       </c>
@@ -19537,46 +19425,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
-  <dimension ref="A1:AR62"/>
+  <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView tabSelected="1" topLeftCell="AU6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="5"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="7.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="5"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="5"/>
-    <col min="25" max="25" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="5"/>
+    <col min="10" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="7.08984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="2"/>
+    <col min="14" max="14" width="11.90625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="5"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="5"/>
+    <col min="25" max="25" width="8.90625" style="5"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="5" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="5"/>
-    <col min="40" max="42" width="21.5546875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="5"/>
+    <col min="40" max="42" width="21.54296875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -19595,7 +19483,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
@@ -19618,7 +19506,7 @@
       <c r="AG2" s="2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="3" t="s">
         <v>6</v>
@@ -19641,7 +19529,7 @@
       <c r="AG3" s="2"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -19658,7 +19546,7 @@
       <c r="AG4" s="2"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:44" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -19670,7 +19558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -19749,7 +19637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.046</v>
       </c>
@@ -19884,8 +19772,14 @@
       <c r="AR7" s="2">
         <v>0.93910000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.046</v>
       </c>
@@ -20016,8 +19910,14 @@
       <c r="AR8" s="2">
         <v>0.94269999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT8">
+        <v>0.1</v>
+      </c>
+      <c r="AU8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.0469999999999999</v>
       </c>
@@ -20154,8 +20054,14 @@
       <c r="AR9" s="2">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT9">
+        <v>0.2</v>
+      </c>
+      <c r="AU9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.0489999999999999</v>
       </c>
@@ -20292,8 +20198,14 @@
       <c r="AR10" s="2">
         <v>0.93159999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT10">
+        <v>0.3</v>
+      </c>
+      <c r="AU10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.8620000000000001</v>
       </c>
@@ -20430,8 +20342,16 @@
       <c r="AR11" s="2">
         <v>0.96709999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT11">
+        <f>AT10+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="AU11">
+        <f>AU10+0.1</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.863</v>
       </c>
@@ -20568,8 +20488,16 @@
       <c r="AR12" s="2">
         <v>0.98540000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT12">
+        <f t="shared" ref="AT12:AU31" si="28">AT11+0.1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.8640000000000001</v>
       </c>
@@ -20706,8 +20634,16 @@
       <c r="AR13" s="2">
         <v>0.98370000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT13">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.8680000000000001</v>
       </c>
@@ -20844,8 +20780,16 @@
       <c r="AR14" s="2">
         <v>0.97470000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT14">
+        <f t="shared" si="28"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="28"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.508</v>
       </c>
@@ -20982,8 +20926,16 @@
       <c r="AR15" s="2">
         <v>1.0073000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT15">
+        <f t="shared" si="28"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="28"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5089999999999999</v>
       </c>
@@ -21120,8 +21072,16 @@
       <c r="AR16" s="2">
         <v>1.0228999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT16">
+        <f t="shared" si="28"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="28"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5089999999999999</v>
       </c>
@@ -21258,8 +21218,16 @@
       <c r="AR17" s="2">
         <v>1.0270999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT17">
+        <f t="shared" si="28"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="28"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.5099999999999998</v>
       </c>
@@ -21396,8 +21364,16 @@
       <c r="AR18" s="2">
         <v>1.0266</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT18">
+        <f t="shared" si="28"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="28"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.5110000000000001</v>
       </c>
@@ -21534,8 +21510,16 @@
       <c r="AR19" s="2">
         <v>1.0253000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT19">
+        <f t="shared" si="28"/>
+        <v>1.2</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="28"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.5129999999999999</v>
       </c>
@@ -21672,8 +21656,16 @@
       <c r="AR20" s="2">
         <v>1.0193000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT20">
+        <f t="shared" si="28"/>
+        <v>1.3</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="28"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.516</v>
       </c>
@@ -21804,8 +21796,16 @@
       <c r="AR21" s="2">
         <v>1.016</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT21">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.0329999999999999</v>
       </c>
@@ -21936,8 +21936,16 @@
       <c r="AR22" s="2">
         <v>1.0455000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT22">
+        <f t="shared" si="28"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="28"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.0339999999999998</v>
       </c>
@@ -22068,8 +22076,16 @@
       <c r="AR23" s="2">
         <v>1.0552999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT23">
+        <f t="shared" si="28"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="28"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.0350000000000001</v>
       </c>
@@ -22200,8 +22216,16 @@
       <c r="AR24" s="2">
         <v>1.0588</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT24">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.036</v>
       </c>
@@ -22332,8 +22356,16 @@
       <c r="AR25" s="2">
         <v>1.0576000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT25">
+        <f t="shared" si="28"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="28"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.036</v>
       </c>
@@ -22464,8 +22496,16 @@
       <c r="AR26" s="2">
         <v>1.0573999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT26">
+        <f t="shared" si="28"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="28"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.0390000000000001</v>
       </c>
@@ -22596,8 +22636,16 @@
       <c r="AR27" s="2">
         <v>1.0491999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT27">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.0430000000000001</v>
       </c>
@@ -22728,8 +22776,16 @@
       <c r="AR28" s="2">
         <v>1.042</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT28">
+        <f t="shared" si="28"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="28"/>
+        <v>2.1000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.7250000000000001</v>
       </c>
@@ -22860,8 +22916,16 @@
       <c r="AR29" s="2">
         <v>1.0887</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT29">
+        <f t="shared" si="28"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="28"/>
+        <v>2.2000000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.726</v>
       </c>
@@ -22992,8 +23056,16 @@
       <c r="AR30" s="2">
         <v>1.1037999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT30">
+        <f t="shared" si="28"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="28"/>
+        <v>2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3.7309999999999999</v>
       </c>
@@ -23124,8 +23196,16 @@
       <c r="AR31" s="2">
         <v>1.1021000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AT31">
+        <f t="shared" si="28"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="28"/>
+        <v>2.4000000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3.738</v>
       </c>
@@ -23257,7 +23337,7 @@
         <v>1.0853999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.883</v>
       </c>
@@ -23389,7 +23469,7 @@
         <v>1.1773</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.8849999999999998</v>
       </c>
@@ -23521,7 +23601,7 @@
         <v>1.1841999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.8860000000000001</v>
       </c>
@@ -23653,7 +23733,7 @@
         <v>1.1852</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.8869999999999996</v>
       </c>
@@ -23785,7 +23865,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.8899999999999997</v>
       </c>
@@ -23917,7 +23997,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4.8940000000000001</v>
       </c>
@@ -24049,7 +24129,7 @@
         <v>1.1655</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -24181,7 +24261,7 @@
         <v>1.1509</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.1020000000000003</v>
       </c>
@@ -24313,7 +24393,7 @@
         <v>1.1949000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.1040000000000001</v>
       </c>
@@ -24445,7 +24525,7 @@
         <v>1.2022999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.1079999999999997</v>
       </c>
@@ -24577,7 +24657,7 @@
         <v>1.1871</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5.1130000000000004</v>
       </c>
@@ -24709,7 +24789,7 @@
         <v>1.1748000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.1189999999999998</v>
       </c>
@@ -24841,7 +24921,7 @@
         <v>1.1572</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5.6459999999999999</v>
       </c>
@@ -24973,7 +25053,7 @@
         <v>1.2384999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5.649</v>
       </c>
@@ -25105,7 +25185,7 @@
         <v>1.2398</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5.6520000000000001</v>
       </c>
@@ -25237,7 +25317,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5.6660000000000004</v>
       </c>
@@ -25369,7 +25449,7 @@
         <v>1.1889000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6.1020000000000003</v>
       </c>
@@ -25501,7 +25581,7 @@
         <v>1.2747999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.1029999999999998</v>
       </c>
@@ -25633,7 +25713,7 @@
         <v>1.2746999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.1040000000000001</v>
       </c>
@@ -25765,7 +25845,7 @@
         <v>1.2718</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.1050000000000004</v>
       </c>
@@ -25897,7 +25977,7 @@
         <v>1.2637</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.1079999999999997</v>
       </c>
@@ -26029,7 +26109,7 @@
         <v>1.2503</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6.1120000000000001</v>
       </c>
@@ -26161,7 +26241,7 @@
         <v>1.2353000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6.117</v>
       </c>
@@ -26293,7 +26373,7 @@
         <v>1.2165999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6.12</v>
       </c>
@@ -26425,7 +26505,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6.1210000000000004</v>
       </c>
@@ -26557,7 +26637,7 @@
         <v>1.2742</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6.1219999999999999</v>
       </c>
@@ -26689,7 +26769,7 @@
         <v>1.2719</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6.1230000000000002</v>
       </c>
@@ -26821,7 +26901,7 @@
         <v>1.2626999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6.1260000000000003</v>
       </c>
@@ -26953,7 +27033,7 @@
         <v>1.2495000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6.13</v>
       </c>
@@ -27085,7 +27165,7 @@
         <v>1.2351000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6.1349999999999998</v>
       </c>
@@ -27225,6 +27305,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
@@ -27232,7 +27321,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27455,16 +27544,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -27481,7 +27569,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27498,12 +27586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\NaCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F408011F-8066-4DB0-BD22-24E94879216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F07F5754-144F-4F9B-A285-6CC93F97DE80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075EB62-A2FC-491A-95CF-8CC5AA0AF6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Graph - Paper" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Our Work</t>
+  </si>
+  <si>
+    <t>Literature Data</t>
   </si>
 </sst>
 </file>
@@ -5725,284 +5731,263 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$A$1:$A$92</c:f>
+              <c:f>'Complete Graph 2 - Paper'!$A$2:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>0.161657</c:v>
+                  <c:v>0.12973899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14164399999999999</c:v>
+                  <c:v>0.104861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15173700000000001</c:v>
+                  <c:v>9.9336499999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125199</c:v>
+                  <c:v>7.7680799999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7041600000000006E-2</c:v>
+                  <c:v>6.9713899999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12973899999999999</c:v>
+                  <c:v>6.2144999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9117900000000005E-2</c:v>
+                  <c:v>5.4396300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.101581</c:v>
+                  <c:v>5.4966099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.104861</c:v>
+                  <c:v>3.40091E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9336499999999994E-2</c:v>
+                  <c:v>3.0074199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7680799999999994E-2</c:v>
+                  <c:v>2.1610899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9713899999999995E-2</c:v>
+                  <c:v>1.29763E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2144999999999999E-2</c:v>
+                  <c:v>0.15817100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4396300000000002E-2</c:v>
+                  <c:v>0.15928800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4966099999999997E-2</c:v>
+                  <c:v>0.16042300000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.40091E-2</c:v>
+                  <c:v>0.163936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0074199999999999E-2</c:v>
+                  <c:v>0.16245799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1610899999999999E-2</c:v>
+                  <c:v>0.16636699999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.29763E-2</c:v>
+                  <c:v>0.16761000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15817100000000001</c:v>
+                  <c:v>0.16887099999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15928800000000001</c:v>
+                  <c:v>0.18504399999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16042300000000001</c:v>
+                  <c:v>0.18512799999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.163936</c:v>
+                  <c:v>0.18546899999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16245799999999999</c:v>
+                  <c:v>0.18552399999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16636699999999999</c:v>
+                  <c:v>0.187198</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16761000000000001</c:v>
+                  <c:v>0.1857</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16887099999999999</c:v>
+                  <c:v>0.18576100000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18504399999999999</c:v>
+                  <c:v>0.186164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18512799999999999</c:v>
+                  <c:v>0.18631200000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18546899999999999</c:v>
+                  <c:v>0.18654399999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18552399999999999</c:v>
+                  <c:v>0.18687699999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.187198</c:v>
+                  <c:v>0.187053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1857</c:v>
+                  <c:v>0.187329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.18576100000000001</c:v>
+                  <c:v>0.18752099999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.186164</c:v>
+                  <c:v>0.187719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.18631200000000001</c:v>
+                  <c:v>0.18782099999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18654399999999999</c:v>
+                  <c:v>0.18892500000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18687699999999999</c:v>
+                  <c:v>0.18904399999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.187053</c:v>
+                  <c:v>0.18953700000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.187329</c:v>
+                  <c:v>0.189664</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.18752099999999999</c:v>
+                  <c:v>0.19361200000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.187719</c:v>
+                  <c:v>0.190881</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.18782099999999999</c:v>
+                  <c:v>0.19131500000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.18892500000000001</c:v>
+                  <c:v>0.19146299999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.18904399999999999</c:v>
+                  <c:v>0.19526099999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.18953700000000001</c:v>
+                  <c:v>0.19254299999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.189664</c:v>
+                  <c:v>0.19495999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.19361200000000001</c:v>
+                  <c:v>0.19442699999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.190881</c:v>
+                  <c:v>0.194048</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.19131500000000001</c:v>
+                  <c:v>0.19611300000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.19146299999999999</c:v>
+                  <c:v>0.19606299999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19526099999999999</c:v>
+                  <c:v>0.19684399999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.19254299999999999</c:v>
+                  <c:v>0.197043</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.19495999999999999</c:v>
+                  <c:v>0.19764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.19442699999999999</c:v>
+                  <c:v>0.19806299999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.194048</c:v>
+                  <c:v>0.19955800000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.19611300000000001</c:v>
+                  <c:v>0.20044699999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.19606299999999999</c:v>
+                  <c:v>0.20182900000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.19684399999999999</c:v>
+                  <c:v>0.203762</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.197043</c:v>
+                  <c:v>0.20502100000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.19764999999999999</c:v>
+                  <c:v>0.20605799999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.19806299999999999</c:v>
+                  <c:v>0.20685200000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.19955800000000001</c:v>
+                  <c:v>0.20738999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.20044699999999999</c:v>
+                  <c:v>0.208484</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.20182900000000001</c:v>
+                  <c:v>0.20932100000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.203762</c:v>
+                  <c:v>0.21162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.20502100000000001</c:v>
+                  <c:v>0.212815</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.20605799999999999</c:v>
+                  <c:v>0.213419</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.20685200000000001</c:v>
+                  <c:v>0.21612899999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.20738999999999999</c:v>
+                  <c:v>0.215586</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.208484</c:v>
+                  <c:v>0.21590200000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.20932100000000001</c:v>
+                  <c:v>0.21718100000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.21162500000000001</c:v>
+                  <c:v>0.21948200000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.212815</c:v>
+                  <c:v>0.22015399999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.213419</c:v>
+                  <c:v>0.22117300000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.21612899999999999</c:v>
+                  <c:v>0.22220699999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.215586</c:v>
+                  <c:v>0.22290499999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.21590200000000001</c:v>
+                  <c:v>0.22325600000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.21718100000000001</c:v>
+                  <c:v>0.22396199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.21948200000000001</c:v>
+                  <c:v>0.22431799999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.22015399999999999</c:v>
+                  <c:v>0.22941800000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.22117300000000001</c:v>
+                  <c:v>0.226854</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.22220699999999999</c:v>
+                  <c:v>0.22759199999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22290499999999999</c:v>
+                  <c:v>0.22256300000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.22325600000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.22396199999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.22431799999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.22941800000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.226854</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.22759199999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.22256300000000001</c:v>
-                </c:pt>
-                <c:pt idx="91">
                   <c:v>0.229467</c:v>
                 </c:pt>
               </c:numCache>
@@ -6010,284 +5995,263 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$B$1:$B$92</c:f>
+              <c:f>'Complete Graph 2 - Paper'!$B$2:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>251</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>253</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>254</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>255</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>273</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>256</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>257</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>260</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>261</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>262</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>263</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>264</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>275</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>277</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>284</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>285</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>287</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>288</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>289</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>295</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>297</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>300</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>304</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>306</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>309</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>311</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>313</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>314</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>324</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>325</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>329</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>330</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>334</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>338</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>340</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>341</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>342</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>348</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>349</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>355</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>357</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>363</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>368</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>372</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>373</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>376</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>378</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>385</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>389</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>395</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>402</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>407</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>411</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>414</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>416</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>419</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>422</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>430</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>434</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>436</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>437</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>443</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>444</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>448</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>454</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>456</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>459</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>462</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>464</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="91">
                   <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
@@ -6343,7 +6307,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$D$1:$D$200</c:f>
+              <c:f>'Complete Graph 2 - Paper'!$D$2:$D$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -6736,7 +6700,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$E$1:$E$200</c:f>
+              <c:f>'Complete Graph 2 - Paper'!$E$2:$E$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -7170,8 +7134,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Fraction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7202,8 +7171,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7235,11 +7204,13 @@
         <c:crossAx val="1881983631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1881983631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7293,8 +7264,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7325,6 +7296,7 @@
         <c:crossAx val="919727360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7512,7 +7484,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12206111111111111"/>
-          <c:y val="7.2943592054649009E-2"/>
+          <c:y val="7.2943602228048701E-2"/>
           <c:w val="0.83852708333333337"/>
           <c:h val="0.69914248971193416"/>
         </c:manualLayout>
@@ -7523,6 +7495,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -7912,7 +7887,7 @@
             <c:v>Parity Line</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8108,8 +8083,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8141,6 +8116,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1309551663"/>
@@ -8200,8 +8176,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="in"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8232,6 +8208,7 @@
         <c:crossAx val="1338956095"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8243,6 +8220,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11824421296296295"/>
+          <c:y val="7.2900790739759372E-2"/>
+          <c:w val="0.29314120370370372"/>
+          <c:h val="0.10195683213499734"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -12281,13 +12298,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>68040</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>106140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13405,16 +13422,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>43178</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>477518</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>350520</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>95978</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>115030</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>530318</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13486,10 +13503,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13924,9 +13937,9 @@
       <selection sqref="A1:B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.166354</v>
       </c>
@@ -13934,7 +13947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.161664</v>
       </c>
@@ -13942,7 +13955,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.15679399999999999</v>
       </c>
@@ -13950,7 +13963,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.15174399999999999</v>
       </c>
@@ -13958,7 +13971,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.14651500000000001</v>
       </c>
@@ -13966,7 +13979,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.14110500000000001</v>
       </c>
@@ -13974,7 +13987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.135515</v>
       </c>
@@ -13982,7 +13995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.129746</v>
       </c>
@@ -13990,7 +14003,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.123796</v>
       </c>
@@ -13998,7 +14011,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.11766699999999999</v>
       </c>
@@ -14006,7 +14019,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.111357</v>
       </c>
@@ -14014,7 +14027,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -14022,7 +14035,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -14030,7 +14043,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7.5022500000000006E-2</v>
       </c>
@@ -14038,7 +14051,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -14046,7 +14059,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -14054,7 +14067,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -14062,7 +14075,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -14070,7 +14083,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.04365E-2</v>
       </c>
@@ -14078,7 +14091,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.66723E-2</v>
       </c>
@@ -14086,7 +14099,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.8449499999999998E-2</v>
       </c>
@@ -14094,7 +14107,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.9701600000000002E-2</v>
       </c>
@@ -14102,7 +14115,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.1536199999999998E-2</v>
       </c>
@@ -14110,7 +14123,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.2898099999999999E-2</v>
       </c>
@@ -14118,7 +14131,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.16370000000000001</v>
       </c>
@@ -14126,7 +14139,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.15389</v>
       </c>
@@ -14134,7 +14147,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.15493499999999999</v>
       </c>
@@ -14142,7 +14155,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.155998</v>
       </c>
@@ -14150,7 +14163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.157079</v>
       </c>
@@ -14158,7 +14171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.15817800000000001</v>
       </c>
@@ -14166,7 +14179,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.15929499999999999</v>
       </c>
@@ -14174,7 +14187,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.16042999999999999</v>
       </c>
@@ -14182,7 +14195,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.161583</v>
       </c>
@@ -14190,7 +14203,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.16561600000000001</v>
       </c>
@@ -14198,7 +14211,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.16514999999999999</v>
       </c>
@@ -14206,7 +14219,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.168878</v>
       </c>
@@ -14214,7 +14227,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.170157</v>
       </c>
@@ -14222,7 +14235,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.17276900000000001</v>
       </c>
@@ -14230,7 +14243,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.17410200000000001</v>
       </c>
@@ -14238,7 +14251,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.175453</v>
       </c>
@@ -14246,7 +14259,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.17682200000000001</v>
       </c>
@@ -14254,7 +14267,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.17820900000000001</v>
       </c>
@@ -14262,7 +14275,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.179614</v>
       </c>
@@ -14270,7 +14283,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.185054</v>
       </c>
@@ -14278,7 +14291,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.18490500000000001</v>
       </c>
@@ -14286,7 +14299,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.18493999999999999</v>
       </c>
@@ -14294,7 +14307,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.18501300000000001</v>
       </c>
@@ -14302,7 +14315,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.185053</v>
       </c>
@@ -14310,7 +14323,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.185136</v>
       </c>
@@ -14318,7 +14331,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.18518000000000001</v>
       </c>
@@ -14326,7 +14339,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.185225</v>
       </c>
@@ -14334,7 +14347,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.18527299999999999</v>
       </c>
@@ -14342,7 +14355,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.18532100000000001</v>
       </c>
@@ -14350,7 +14363,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.18542400000000001</v>
       </c>
@@ -14358,7 +14371,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.185477</v>
       </c>
@@ -14366,7 +14379,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.185533</v>
       </c>
@@ -14374,7 +14387,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.18532199999999999</v>
       </c>
@@ -14382,7 +14395,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.18564800000000001</v>
       </c>
@@ -14390,7 +14403,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.18570800000000001</v>
       </c>
@@ -14398,7 +14411,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.18576899999999999</v>
       </c>
@@ -14406,7 +14419,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.185833</v>
       </c>
@@ -14414,7 +14427,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.18589700000000001</v>
       </c>
@@ -14422,7 +14435,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.186032</v>
       </c>
@@ -14430,7 +14443,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.18610099999999999</v>
       </c>
@@ -14438,7 +14451,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.18617300000000001</v>
       </c>
@@ -14446,7 +14459,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.18624499999999999</v>
       </c>
@@ -14454,7 +14467,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.186473</v>
       </c>
@@ -14462,7 +14475,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.186553</v>
       </c>
@@ -14470,7 +14483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.18671599999999999</v>
       </c>
@@ -14478,7 +14491,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.18706100000000001</v>
       </c>
@@ -14486,7 +14499,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.18715200000000001</v>
       </c>
@@ -14494,7 +14507,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.18724399999999999</v>
       </c>
@@ -14502,7 +14515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.18732599999999999</v>
       </c>
@@ -14510,7 +14523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.18743299999999999</v>
       </c>
@@ -14518,7 +14531,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.187529</v>
       </c>
@@ -14526,7 +14539,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.18772800000000001</v>
       </c>
@@ -14534,7 +14547,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.187829</v>
       </c>
@@ -14542,7 +14555,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.188252</v>
       </c>
@@ -14550,7 +14563,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.188361</v>
       </c>
@@ -14558,7 +14571,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.188585</v>
       </c>
@@ -14566,7 +14579,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.18870000000000001</v>
       </c>
@@ -14574,7 +14587,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.18881600000000001</v>
       </c>
@@ -14582,7 +14595,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.18893299999999999</v>
       </c>
@@ -14590,7 +14603,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.189053</v>
       </c>
@@ -14598,7 +14611,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.18917300000000001</v>
       </c>
@@ -14606,7 +14619,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.18942000000000001</v>
       </c>
@@ -14614,7 +14627,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.18954499999999999</v>
       </c>
@@ -14622,7 +14635,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.18967200000000001</v>
       </c>
@@ -14630,7 +14643,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.189801</v>
       </c>
@@ -14638,7 +14651,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.18993199999999999</v>
       </c>
@@ -14646,7 +14659,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.19006400000000001</v>
       </c>
@@ -14654,7 +14667,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.190197</v>
       </c>
@@ -14662,7 +14675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.188471</v>
       </c>
@@ -14670,7 +14683,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.190469</v>
       </c>
@@ -14678,7 +14691,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.190608</v>
       </c>
@@ -14686,7 +14699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.190748</v>
       </c>
@@ -14694,7 +14707,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.190889</v>
       </c>
@@ -14702,7 +14715,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.19117700000000001</v>
       </c>
@@ -14710,7 +14723,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.19132399999999999</v>
       </c>
@@ -14718,7 +14731,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.191472</v>
       </c>
@@ -14726,7 +14739,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.19192500000000001</v>
       </c>
@@ -14734,7 +14747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.192713</v>
       </c>
@@ -14742,7 +14755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.19287599999999999</v>
       </c>
@@ -14750,7 +14763,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.19303999999999999</v>
       </c>
@@ -14758,7 +14771,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.19320499999999999</v>
       </c>
@@ -14766,7 +14779,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.19354099999999999</v>
       </c>
@@ -14774,7 +14787,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.193712</v>
       </c>
@@ -14782,7 +14795,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.193884</v>
       </c>
@@ -14790,7 +14803,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.19405700000000001</v>
       </c>
@@ -14798,7 +14811,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.19423199999999999</v>
       </c>
@@ -14806,7 +14819,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.194409</v>
       </c>
@@ -14814,7 +14827,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.19458700000000001</v>
       </c>
@@ -14822,7 +14835,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.194767</v>
       </c>
@@ -14830,7 +14843,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.19494900000000001</v>
       </c>
@@ -14838,7 +14851,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.195132</v>
       </c>
@@ -14846,7 +14859,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.19531699999999999</v>
       </c>
@@ -14854,7 +14867,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.19550300000000001</v>
       </c>
@@ -14862,7 +14875,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.195881</v>
       </c>
@@ -14870,7 +14883,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.196072</v>
       </c>
@@ -14878,7 +14891,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.196265</v>
       </c>
@@ -14886,7 +14899,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.19645899999999999</v>
       </c>
@@ -14894,7 +14907,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.196655</v>
       </c>
@@ -14902,7 +14915,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.196853</v>
       </c>
@@ -14910,7 +14923,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.19725300000000001</v>
       </c>
@@ -14918,7 +14931,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.19745499999999999</v>
       </c>
@@ -14926,7 +14939,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.197659</v>
       </c>
@@ -14934,7 +14947,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.19786500000000001</v>
       </c>
@@ -14942,7 +14955,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.198072</v>
       </c>
@@ -14950,7 +14963,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.19828100000000001</v>
       </c>
@@ -14958,7 +14971,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.198491</v>
       </c>
@@ -14966,7 +14979,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.19870299999999999</v>
       </c>
@@ -14974,7 +14987,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.19891700000000001</v>
       </c>
@@ -14982,7 +14995,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.199349</v>
       </c>
@@ -14990,7 +15003,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.19956699999999999</v>
       </c>
@@ -14998,7 +15011,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.20000899999999999</v>
       </c>
@@ -15006,7 +15019,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.20023199999999999</v>
       </c>
@@ -15014,7 +15027,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.20091100000000001</v>
       </c>
@@ -15022,7 +15035,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.20114099999999999</v>
       </c>
@@ -15030,7 +15043,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.201372</v>
       </c>
@@ -15038,7 +15051,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.20160500000000001</v>
       </c>
@@ -15046,7 +15059,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.20183899999999999</v>
       </c>
@@ -15054,7 +15067,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.202075</v>
       </c>
@@ -15062,7 +15075,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.20231299999999999</v>
       </c>
@@ -15070,7 +15083,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.20303499999999999</v>
       </c>
@@ -15078,7 +15091,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.20352500000000001</v>
       </c>
@@ -15086,7 +15099,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.20377200000000001</v>
       </c>
@@ -15094,7 +15107,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.20427100000000001</v>
       </c>
@@ -15102,7 +15115,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.20452300000000001</v>
       </c>
@@ -15110,7 +15123,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.20477699999999999</v>
       </c>
@@ -15118,7 +15131,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.20503199999999999</v>
       </c>
@@ -15126,7 +15139,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.205289</v>
       </c>
@@ -15134,7 +15147,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.206069</v>
       </c>
@@ -15142,7 +15155,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.20633199999999999</v>
       </c>
@@ -15150,7 +15163,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.206597</v>
       </c>
@@ -15158,7 +15171,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.20713100000000001</v>
       </c>
@@ -15166,7 +15179,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.207401</v>
       </c>
@@ -15174,7 +15187,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.207672</v>
       </c>
@@ -15182,7 +15195,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.20821899999999999</v>
       </c>
@@ -15190,7 +15203,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.20849500000000001</v>
       </c>
@@ -15198,7 +15211,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.20877299999999999</v>
       </c>
@@ -15206,7 +15219,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.20905199999999999</v>
       </c>
@@ -15214,7 +15227,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.20933299999999999</v>
       </c>
@@ -15222,7 +15235,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.209615</v>
       </c>
@@ -15230,7 +15243,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.209899</v>
       </c>
@@ -15238,7 +15251,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.21047199999999999</v>
       </c>
@@ -15246,7 +15259,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.21105099999999999</v>
       </c>
@@ -15254,7 +15267,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.21163599999999999</v>
       </c>
@@ -15262,7 +15275,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.21193200000000001</v>
       </c>
@@ -15270,7 +15283,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0.21252699999999999</v>
       </c>
@@ -15278,7 +15291,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.21282699999999999</v>
       </c>
@@ -15286,7 +15299,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.21312800000000001</v>
       </c>
@@ -15294,7 +15307,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.21404300000000001</v>
       </c>
@@ -15302,7 +15315,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.214972</v>
       </c>
@@ -15310,7 +15323,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.215284</v>
       </c>
@@ -15318,7 +15331,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.21559900000000001</v>
       </c>
@@ -15326,7 +15339,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.21623200000000001</v>
       </c>
@@ -15334,7 +15347,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0.21655199999999999</v>
       </c>
@@ -15342,7 +15355,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0.21687200000000001</v>
       </c>
@@ -15350,7 +15363,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.217195</v>
       </c>
@@ -15358,7 +15371,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.21751899999999999</v>
       </c>
@@ -15366,7 +15379,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0.218171</v>
       </c>
@@ -15374,7 +15387,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0.2185</v>
       </c>
@@ -15382,7 +15395,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.218831</v>
       </c>
@@ -15390,7 +15403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.219163</v>
       </c>
@@ -15398,7 +15411,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.219831</v>
       </c>
@@ -15406,7 +15419,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.220168</v>
       </c>
@@ -15414,7 +15427,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.22084699999999999</v>
       </c>
@@ -15422,7 +15435,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.221188</v>
       </c>
@@ -15430,7 +15443,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.221051</v>
       </c>
@@ -15438,7 +15451,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.22257099999999999</v>
       </c>
@@ -15446,7 +15459,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.22292000000000001</v>
       </c>
@@ -15454,7 +15467,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.22362399999999999</v>
       </c>
@@ -15462,7 +15475,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.22397800000000001</v>
       </c>
@@ -15470,7 +15483,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.224692</v>
       </c>
@@ -15478,7 +15491,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.225051</v>
       </c>
@@ -15486,7 +15499,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.225412</v>
       </c>
@@ -15494,7 +15507,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.225774</v>
       </c>
@@ -15502,7 +15515,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.22613800000000001</v>
       </c>
@@ -15510,7 +15523,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.224855</v>
       </c>
@@ -15518,7 +15531,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.22724</v>
       </c>
@@ -15526,7 +15539,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.22798199999999999</v>
       </c>
@@ -15534,7 +15547,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.228356</v>
       </c>
@@ -15542,7 +15555,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0.22873099999999999</v>
       </c>
@@ -15550,7 +15563,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0.22910800000000001</v>
       </c>
@@ -15558,7 +15571,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.229486</v>
       </c>
@@ -15566,7 +15579,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0.22986599999999999</v>
       </c>
@@ -15588,12 +15601,12 @@
       <selection activeCell="J4" sqref="J4:K68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -15601,7 +15614,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.15353E-2</v>
       </c>
@@ -15618,7 +15631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.9703E-2</v>
       </c>
@@ -15626,7 +15639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.8424600000000003E-2</v>
       </c>
@@ -15652,7 +15665,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.66723E-2</v>
       </c>
@@ -15678,7 +15691,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -15704,7 +15717,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -15730,7 +15743,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -15756,7 +15769,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -15782,7 +15795,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.1350200000000006E-2</v>
       </c>
@@ -15808,7 +15821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -15834,7 +15847,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -15854,7 +15867,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.111357</v>
       </c>
@@ -15874,7 +15887,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.11766699999999999</v>
       </c>
@@ -15894,7 +15907,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.123796</v>
       </c>
@@ -15914,7 +15927,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.129746</v>
       </c>
@@ -15934,7 +15947,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.135515</v>
       </c>
@@ -15954,7 +15967,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.14110500000000001</v>
       </c>
@@ -15974,7 +15987,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.14651500000000001</v>
       </c>
@@ -15994,7 +16007,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.15174399999999999</v>
       </c>
@@ -16014,7 +16027,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.16042999999999999</v>
       </c>
@@ -16034,7 +16047,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.161583</v>
       </c>
@@ -16054,7 +16067,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.16275400000000001</v>
       </c>
@@ -16074,7 +16087,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.16394300000000001</v>
       </c>
@@ -16088,7 +16101,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.16514999999999999</v>
       </c>
@@ -16102,7 +16115,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.166375</v>
       </c>
@@ -16116,7 +16129,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.16761699999999999</v>
       </c>
@@ -16130,7 +16143,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.170157</v>
       </c>
@@ -16147,7 +16160,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.171454</v>
       </c>
@@ -16161,7 +16174,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.17276900000000001</v>
       </c>
@@ -16175,7 +16188,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.17410200000000001</v>
       </c>
@@ -16189,7 +16202,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.175453</v>
       </c>
@@ -16203,7 +16216,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.17682200000000001</v>
       </c>
@@ -16217,7 +16230,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.179614</v>
       </c>
@@ -16231,7 +16244,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.179614</v>
       </c>
@@ -16245,7 +16258,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.184976</v>
       </c>
@@ -16259,7 +16272,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.18501400000000001</v>
       </c>
@@ -16273,7 +16286,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.185053</v>
       </c>
@@ -16287,7 +16300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.18509400000000001</v>
       </c>
@@ -16301,7 +16314,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.18518000000000001</v>
       </c>
@@ -16315,7 +16328,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.185226</v>
       </c>
@@ -16329,7 +16342,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.18527299999999999</v>
       </c>
@@ -16343,7 +16356,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.18532199999999999</v>
       </c>
@@ -16357,7 +16370,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.18537200000000001</v>
       </c>
@@ -16371,7 +16384,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.18542400000000001</v>
       </c>
@@ -16385,7 +16398,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.185477</v>
       </c>
@@ -16399,7 +16412,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.185533</v>
       </c>
@@ -16413,7 +16426,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.185589</v>
       </c>
@@ -16427,7 +16440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.18564800000000001</v>
       </c>
@@ -16441,7 +16454,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.18570800000000001</v>
       </c>
@@ -16455,7 +16468,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.18576899999999999</v>
       </c>
@@ -16469,7 +16482,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.185833</v>
       </c>
@@ -16483,7 +16496,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.18589700000000001</v>
       </c>
@@ -16497,7 +16510,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.18596399999999999</v>
       </c>
@@ -16511,7 +16524,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.18617300000000001</v>
       </c>
@@ -16525,7 +16538,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.18624499999999999</v>
       </c>
@@ -16539,7 +16552,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.18632000000000001</v>
       </c>
@@ -16553,7 +16566,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.18639600000000001</v>
       </c>
@@ -16567,7 +16580,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.186553</v>
       </c>
@@ -16581,7 +16594,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.18671599999999999</v>
       </c>
@@ -16595,7 +16608,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.18679999999999999</v>
       </c>
@@ -16609,7 +16622,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.186885</v>
       </c>
@@ -16623,7 +16636,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.186973</v>
       </c>
@@ -16637,7 +16650,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.18706100000000001</v>
       </c>
@@ -16651,7 +16664,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.18715200000000001</v>
       </c>
@@ -16665,7 +16678,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.18724399999999999</v>
       </c>
@@ -16679,7 +16692,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.187337</v>
       </c>
@@ -16693,7 +16706,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.18743299999999999</v>
       </c>
@@ -16707,7 +16720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.187529</v>
       </c>
@@ -16715,7 +16728,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.18762799999999999</v>
       </c>
@@ -16723,7 +16736,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.18772800000000001</v>
       </c>
@@ -16731,7 +16744,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.187829</v>
       </c>
@@ -16739,7 +16752,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.18803700000000001</v>
       </c>
@@ -16747,7 +16760,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.18814400000000001</v>
       </c>
@@ -16755,7 +16768,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.188252</v>
       </c>
@@ -16763,7 +16776,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.188585</v>
       </c>
@@ -16771,7 +16784,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.18870000000000001</v>
       </c>
@@ -16779,7 +16792,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.18893299999999999</v>
       </c>
@@ -16787,7 +16800,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.18929599999999999</v>
       </c>
@@ -16795,7 +16808,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.18942000000000001</v>
       </c>
@@ -16803,7 +16816,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.18954499999999999</v>
       </c>
@@ -16811,7 +16824,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.18967300000000001</v>
       </c>
@@ -16819,7 +16832,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.189801</v>
       </c>
@@ -16827,7 +16840,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.18993199999999999</v>
       </c>
@@ -16835,7 +16848,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.190197</v>
       </c>
@@ -16843,7 +16856,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.190333</v>
       </c>
@@ -16851,7 +16864,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.190748</v>
       </c>
@@ -16859,7 +16872,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.190889</v>
       </c>
@@ -16867,7 +16880,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.19103200000000001</v>
       </c>
@@ -16875,7 +16888,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.19117700000000001</v>
       </c>
@@ -16883,7 +16896,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.19132399999999999</v>
       </c>
@@ -16891,7 +16904,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.19162100000000001</v>
       </c>
@@ -16899,7 +16912,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.191772</v>
       </c>
@@ -16907,7 +16920,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.19192500000000001</v>
       </c>
@@ -16915,7 +16928,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.19223599999999999</v>
       </c>
@@ -16923,7 +16936,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.19239300000000001</v>
       </c>
@@ -16931,7 +16944,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.19287599999999999</v>
       </c>
@@ -16939,7 +16952,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.19303999999999999</v>
       </c>
@@ -16947,7 +16960,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.19320499999999999</v>
       </c>
@@ -16955,7 +16968,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.19337199999999999</v>
       </c>
@@ -16963,7 +16976,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.19354099999999999</v>
       </c>
@@ -16971,7 +16984,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.193712</v>
       </c>
@@ -16979,7 +16992,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.19423199999999999</v>
       </c>
@@ -16987,7 +17000,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.194409</v>
       </c>
@@ -16995,7 +17008,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.19458800000000001</v>
       </c>
@@ -17003,7 +17016,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.195132</v>
       </c>
@@ -17011,7 +17024,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.19531699999999999</v>
       </c>
@@ -17019,7 +17032,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.19569300000000001</v>
       </c>
@@ -17027,7 +17040,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.195881</v>
       </c>
@@ -17035,7 +17048,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.196072</v>
       </c>
@@ -17043,7 +17056,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.19645899999999999</v>
       </c>
@@ -17051,7 +17064,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.196655</v>
       </c>
@@ -17059,7 +17072,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.19745499999999999</v>
       </c>
@@ -17067,7 +17080,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.197659</v>
       </c>
@@ -17075,7 +17088,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.19786500000000001</v>
       </c>
@@ -17083,7 +17096,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.19828100000000001</v>
       </c>
@@ -17091,7 +17104,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.198491</v>
       </c>
@@ -17099,7 +17112,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.19870299999999999</v>
       </c>
@@ -17107,7 +17120,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.199349</v>
       </c>
@@ -17115,7 +17128,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.19956699999999999</v>
       </c>
@@ -17123,7 +17136,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.19978699999999999</v>
       </c>
@@ -17131,7 +17144,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.20000899999999999</v>
       </c>
@@ -17139,7 +17152,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.20023199999999999</v>
       </c>
@@ -17147,7 +17160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.200457</v>
       </c>
@@ -17155,7 +17168,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.200683</v>
       </c>
@@ -17163,7 +17176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.20091100000000001</v>
       </c>
@@ -17171,7 +17184,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.20114099999999999</v>
       </c>
@@ -17179,7 +17192,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.201372</v>
       </c>
@@ -17187,7 +17200,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.202075</v>
       </c>
@@ -17195,7 +17208,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.20231299999999999</v>
       </c>
@@ -17203,7 +17216,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.20255200000000001</v>
       </c>
@@ -17211,7 +17224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.20352500000000001</v>
       </c>
@@ -17219,7 +17232,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.20377200000000001</v>
       </c>
@@ -17227,7 +17240,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.20477699999999999</v>
       </c>
@@ -17235,7 +17248,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.20503199999999999</v>
       </c>
@@ -17243,7 +17256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.205289</v>
       </c>
@@ -17251,7 +17264,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.206069</v>
       </c>
@@ -17259,7 +17272,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.20633199999999999</v>
       </c>
@@ -17267,7 +17280,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.20686299999999999</v>
       </c>
@@ -17275,7 +17288,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.20713100000000001</v>
       </c>
@@ -17283,7 +17296,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.207401</v>
       </c>
@@ -17291,7 +17304,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.207672</v>
       </c>
@@ -17299,7 +17312,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.20794499999999999</v>
       </c>
@@ -17307,7 +17320,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.20849500000000001</v>
       </c>
@@ -17315,7 +17328,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.20905199999999999</v>
       </c>
@@ -17323,7 +17336,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.209615</v>
       </c>
@@ -17331,7 +17344,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.209899</v>
       </c>
@@ -17339,7 +17352,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.21018500000000001</v>
       </c>
@@ -17347,7 +17360,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.21105099999999999</v>
       </c>
@@ -17355,7 +17368,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.21134500000000001</v>
       </c>
@@ -17363,7 +17376,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.21163699999999999</v>
       </c>
@@ -17371,7 +17384,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.21193200000000001</v>
       </c>
@@ -17379,7 +17392,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.21252699999999999</v>
       </c>
@@ -17387,7 +17400,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.21282699999999999</v>
       </c>
@@ -17395,7 +17408,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.21343200000000001</v>
       </c>
@@ -17403,7 +17416,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.21373600000000001</v>
       </c>
@@ -17411,7 +17424,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.21435100000000001</v>
       </c>
@@ -17419,7 +17432,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.21465999999999999</v>
       </c>
@@ -17427,7 +17440,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.214972</v>
       </c>
@@ -17435,7 +17448,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.215284</v>
       </c>
@@ -17443,7 +17456,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.21559900000000001</v>
       </c>
@@ -17451,7 +17464,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.21623200000000001</v>
       </c>
@@ -17459,7 +17472,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.21655199999999999</v>
       </c>
@@ -17467,7 +17480,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.21687200000000001</v>
       </c>
@@ -17475,7 +17488,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.217195</v>
       </c>
@@ -17483,7 +17496,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.21784400000000001</v>
       </c>
@@ -17491,7 +17504,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.218171</v>
       </c>
@@ -17499,7 +17512,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.2185</v>
       </c>
@@ -17507,7 +17520,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0.219163</v>
       </c>
@@ -17515,7 +17528,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.219496</v>
       </c>
@@ -17523,7 +17536,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.220168</v>
       </c>
@@ -17531,7 +17544,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.22050700000000001</v>
       </c>
@@ -17539,7 +17552,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.221188</v>
       </c>
@@ -17547,7 +17560,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.22153100000000001</v>
       </c>
@@ -17555,7 +17568,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.22187599999999999</v>
       </c>
@@ -17563,7 +17576,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.222223</v>
       </c>
@@ -17571,7 +17584,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0.22257099999999999</v>
       </c>
@@ -17579,7 +17592,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0.22292000000000001</v>
       </c>
@@ -17587,7 +17600,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0.223271</v>
       </c>
@@ -17595,7 +17608,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0.22362399999999999</v>
       </c>
@@ -17603,7 +17616,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0.22397900000000001</v>
       </c>
@@ -17611,7 +17624,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0.22433400000000001</v>
       </c>
@@ -17619,7 +17632,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0.224692</v>
       </c>
@@ -17627,7 +17640,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.225412</v>
       </c>
@@ -17635,7 +17648,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.225774</v>
       </c>
@@ -17643,7 +17656,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.22613800000000001</v>
       </c>
@@ -17651,7 +17664,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.22650400000000001</v>
       </c>
@@ -17659,7 +17672,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.22687099999999999</v>
       </c>
@@ -17667,7 +17680,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.22761000000000001</v>
       </c>
@@ -17675,7 +17688,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.229051</v>
       </c>
@@ -17683,7 +17696,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.228356</v>
       </c>
@@ -17691,7 +17704,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.22910800000000001</v>
       </c>
@@ -17699,7 +17712,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.229486</v>
       </c>
@@ -17707,7 +17720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.22986599999999999</v>
       </c>
@@ -17715,7 +17728,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.23024800000000001</v>
       </c>
@@ -17723,7 +17736,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.230631</v>
       </c>
@@ -17731,7 +17744,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.231016</v>
       </c>
@@ -17739,7 +17752,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.23179</v>
       </c>
@@ -17747,7 +17760,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.23218</v>
       </c>
@@ -17755,7 +17768,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.23335800000000001</v>
       </c>
@@ -17771,1648 +17784,1612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0.161657</v>
-      </c>
-      <c r="B1">
-        <v>251</v>
-      </c>
-      <c r="D1" s="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.12973899999999999</v>
+      </c>
+      <c r="B2">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>273</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.14164399999999999</v>
-      </c>
-      <c r="B2">
-        <v>252</v>
-      </c>
-      <c r="D2">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.104861</v>
+      </c>
+      <c r="B3">
+        <v>261</v>
+      </c>
+      <c r="D3">
         <v>2.15353E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.15173700000000001</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9.9336499999999994E-2</v>
+      </c>
+      <c r="B4">
+        <v>262</v>
+      </c>
+      <c r="D4">
+        <v>2.9703E-2</v>
+      </c>
+      <c r="E4">
+        <v>271</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7.7680799999999994E-2</v>
+      </c>
+      <c r="B5">
+        <v>265</v>
+      </c>
+      <c r="D5">
+        <v>3.8424600000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.9713899999999995E-2</v>
+      </c>
+      <c r="B6">
+        <v>266</v>
+      </c>
+      <c r="D6">
+        <v>4.66723E-2</v>
+      </c>
+      <c r="E6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6.2144999999999999E-2</v>
+      </c>
+      <c r="B7">
+        <v>267</v>
+      </c>
+      <c r="D7">
+        <v>6.2159499999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.4396300000000002E-2</v>
+      </c>
+      <c r="B8">
+        <v>268</v>
+      </c>
+      <c r="D8">
+        <v>6.9725899999999993E-2</v>
+      </c>
+      <c r="E8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.4966099999999997E-2</v>
+      </c>
+      <c r="B9">
+        <v>269</v>
+      </c>
+      <c r="D9">
+        <v>7.7113399999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.40091E-2</v>
+      </c>
+      <c r="B10">
+        <v>270</v>
+      </c>
+      <c r="D10">
+        <v>8.4321599999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.0074199999999999E-2</v>
+      </c>
+      <c r="B11">
+        <v>271</v>
+      </c>
+      <c r="D11">
+        <v>9.1350200000000006E-2</v>
+      </c>
+      <c r="E11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.1610899999999999E-2</v>
+      </c>
+      <c r="B12">
+        <v>272</v>
+      </c>
+      <c r="D12">
+        <v>9.8199099999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.29763E-2</v>
+      </c>
+      <c r="B13">
+        <v>273</v>
+      </c>
+      <c r="D13">
+        <v>0.104868</v>
+      </c>
+      <c r="E13">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.15817100000000001</v>
+      </c>
+      <c r="B14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>0.111357</v>
+      </c>
+      <c r="E14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.15928800000000001</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="D15">
+        <v>0.11766699999999999</v>
+      </c>
+      <c r="E15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.16042300000000001</v>
+      </c>
+      <c r="B16">
+        <v>257</v>
+      </c>
+      <c r="D16">
+        <v>0.123796</v>
+      </c>
+      <c r="E16">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.163936</v>
+      </c>
+      <c r="B17">
+        <v>260</v>
+      </c>
+      <c r="D17">
+        <v>0.129746</v>
+      </c>
+      <c r="E17">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.16245799999999999</v>
+      </c>
+      <c r="B18">
+        <v>261</v>
+      </c>
+      <c r="D18">
+        <v>0.135515</v>
+      </c>
+      <c r="E18">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.16636699999999999</v>
+      </c>
+      <c r="B19">
+        <v>262</v>
+      </c>
+      <c r="D19">
+        <v>0.14110500000000001</v>
+      </c>
+      <c r="E19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.16761000000000001</v>
+      </c>
+      <c r="B20">
+        <v>263</v>
+      </c>
+      <c r="D20">
+        <v>0.14651500000000001</v>
+      </c>
+      <c r="E20">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.16887099999999999</v>
+      </c>
+      <c r="B21">
+        <v>264</v>
+      </c>
+      <c r="D21">
+        <v>0.15174399999999999</v>
+      </c>
+      <c r="E21">
         <v>253</v>
       </c>
-      <c r="D3">
-        <v>2.9703E-2</v>
-      </c>
-      <c r="E3">
-        <v>271</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>0.125199</v>
-      </c>
-      <c r="B4">
-        <v>254</v>
-      </c>
-      <c r="D4">
-        <v>3.8424600000000003E-2</v>
-      </c>
-      <c r="E4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>9.7041600000000006E-2</v>
-      </c>
-      <c r="B5">
-        <v>255</v>
-      </c>
-      <c r="D5">
-        <v>4.66723E-2</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.18504399999999999</v>
+      </c>
+      <c r="B22">
+        <v>275</v>
+      </c>
+      <c r="D22">
+        <v>0.16042999999999999</v>
+      </c>
+      <c r="E22">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.18512799999999999</v>
+      </c>
+      <c r="B23">
+        <v>277</v>
+      </c>
+      <c r="D23">
+        <v>0.161583</v>
+      </c>
+      <c r="E23">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.18546899999999999</v>
+      </c>
+      <c r="B24">
+        <v>284</v>
+      </c>
+      <c r="D24">
+        <v>0.16275400000000001</v>
+      </c>
+      <c r="E24">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.18552399999999999</v>
+      </c>
+      <c r="B25">
+        <v>285</v>
+      </c>
+      <c r="D25">
+        <v>0.16394300000000001</v>
+      </c>
+      <c r="E25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.187198</v>
+      </c>
+      <c r="B26">
+        <v>287</v>
+      </c>
+      <c r="D26">
+        <v>0.16514999999999999</v>
+      </c>
+      <c r="E26">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.1857</v>
+      </c>
+      <c r="B27">
+        <v>288</v>
+      </c>
+      <c r="D27">
+        <v>0.166375</v>
+      </c>
+      <c r="E27">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.18576100000000001</v>
+      </c>
+      <c r="B28">
+        <v>289</v>
+      </c>
+      <c r="D28">
+        <v>0.16761699999999999</v>
+      </c>
+      <c r="E28">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.186164</v>
+      </c>
+      <c r="B29">
+        <v>295</v>
+      </c>
+      <c r="D29">
+        <v>0.170157</v>
+      </c>
+      <c r="E29">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.18631200000000001</v>
+      </c>
+      <c r="B30">
+        <v>297</v>
+      </c>
+      <c r="D30">
+        <v>0.171454</v>
+      </c>
+      <c r="E30">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.18654399999999999</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="D31">
+        <v>0.17276900000000001</v>
+      </c>
+      <c r="E31">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.18687699999999999</v>
+      </c>
+      <c r="B32">
+        <v>304</v>
+      </c>
+      <c r="D32">
+        <v>0.17410200000000001</v>
+      </c>
+      <c r="E32">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>0.12973899999999999</v>
-      </c>
-      <c r="B6">
-        <v>257</v>
-      </c>
-      <c r="D6">
-        <v>6.2159499999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7.9117900000000005E-2</v>
-      </c>
-      <c r="B7">
-        <v>258</v>
-      </c>
-      <c r="D7">
-        <v>6.9725899999999993E-2</v>
-      </c>
-      <c r="E7">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>0.101581</v>
-      </c>
-      <c r="B8">
-        <v>259</v>
-      </c>
-      <c r="D8">
-        <v>7.7113399999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>0.104861</v>
-      </c>
-      <c r="B9">
-        <v>261</v>
-      </c>
-      <c r="D9">
-        <v>8.4321599999999997E-2</v>
-      </c>
-      <c r="E9">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9.9336499999999994E-2</v>
-      </c>
-      <c r="B10">
-        <v>262</v>
-      </c>
-      <c r="D10">
-        <v>9.1350200000000006E-2</v>
-      </c>
-      <c r="E10">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>7.7680799999999994E-2</v>
-      </c>
-      <c r="B11">
-        <v>265</v>
-      </c>
-      <c r="D11">
-        <v>9.8199099999999998E-2</v>
-      </c>
-      <c r="E11">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>6.9713899999999995E-2</v>
-      </c>
-      <c r="B12">
-        <v>266</v>
-      </c>
-      <c r="D12">
-        <v>0.104868</v>
-      </c>
-      <c r="E12">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>6.2144999999999999E-2</v>
-      </c>
-      <c r="B13">
-        <v>267</v>
-      </c>
-      <c r="D13">
-        <v>0.111357</v>
-      </c>
-      <c r="E13">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5.4396300000000002E-2</v>
-      </c>
-      <c r="B14">
-        <v>268</v>
-      </c>
-      <c r="D14">
-        <v>0.11766699999999999</v>
-      </c>
-      <c r="E14">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5.4966099999999997E-2</v>
-      </c>
-      <c r="B15">
-        <v>269</v>
-      </c>
-      <c r="D15">
-        <v>0.123796</v>
-      </c>
-      <c r="E15">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>3.40091E-2</v>
-      </c>
-      <c r="B16">
-        <v>270</v>
-      </c>
-      <c r="D16">
-        <v>0.129746</v>
-      </c>
-      <c r="E16">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>3.0074199999999999E-2</v>
-      </c>
-      <c r="B17">
-        <v>271</v>
-      </c>
-      <c r="D17">
-        <v>0.135515</v>
-      </c>
-      <c r="E17">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2.1610899999999999E-2</v>
-      </c>
-      <c r="B18">
-        <v>272</v>
-      </c>
-      <c r="D18">
-        <v>0.14110500000000001</v>
-      </c>
-      <c r="E18">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1.29763E-2</v>
-      </c>
-      <c r="B19">
-        <v>273</v>
-      </c>
-      <c r="D19">
-        <v>0.14651500000000001</v>
-      </c>
-      <c r="E19">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>0.15817100000000001</v>
-      </c>
-      <c r="B20">
-        <v>255</v>
-      </c>
-      <c r="D20">
-        <v>0.15174399999999999</v>
-      </c>
-      <c r="E20">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>0.15928800000000001</v>
-      </c>
-      <c r="B21">
-        <v>256</v>
-      </c>
-      <c r="D21">
-        <v>0.16042999999999999</v>
-      </c>
-      <c r="E21">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>0.16042300000000001</v>
-      </c>
-      <c r="B22">
-        <v>257</v>
-      </c>
-      <c r="D22">
-        <v>0.161583</v>
-      </c>
-      <c r="E22">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>0.163936</v>
-      </c>
-      <c r="B23">
-        <v>260</v>
-      </c>
-      <c r="D23">
-        <v>0.16275400000000001</v>
-      </c>
-      <c r="E23">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>0.16245799999999999</v>
-      </c>
-      <c r="B24">
-        <v>261</v>
-      </c>
-      <c r="D24">
-        <v>0.16394300000000001</v>
-      </c>
-      <c r="E24">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>0.16636699999999999</v>
-      </c>
-      <c r="B25">
-        <v>262</v>
-      </c>
-      <c r="D25">
-        <v>0.16514999999999999</v>
-      </c>
-      <c r="E25">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>0.16761000000000001</v>
-      </c>
-      <c r="B26">
-        <v>263</v>
-      </c>
-      <c r="D26">
-        <v>0.166375</v>
-      </c>
-      <c r="E26">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>0.16887099999999999</v>
-      </c>
-      <c r="B27">
-        <v>264</v>
-      </c>
-      <c r="D27">
-        <v>0.16761699999999999</v>
-      </c>
-      <c r="E27">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>0.18504399999999999</v>
-      </c>
-      <c r="B28">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.187053</v>
+      </c>
+      <c r="B33">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.187329</v>
+      </c>
+      <c r="B34">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.18752099999999999</v>
+      </c>
+      <c r="B35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.187719</v>
+      </c>
+      <c r="B36">
+        <v>313</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.18782099999999999</v>
+      </c>
+      <c r="B37">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.18892500000000001</v>
+      </c>
+      <c r="B38">
+        <v>324</v>
+      </c>
+      <c r="D38">
+        <v>0.18501400000000001</v>
+      </c>
+      <c r="E38">
+        <v>274</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.18904399999999999</v>
+      </c>
+      <c r="B39">
+        <v>325</v>
+      </c>
+      <c r="D39">
+        <v>0.185053</v>
+      </c>
+      <c r="E39">
         <v>275</v>
       </c>
-      <c r="D28">
-        <v>0.170157</v>
-      </c>
-      <c r="E28">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>0.18512799999999999</v>
-      </c>
-      <c r="B29">
-        <v>277</v>
-      </c>
-      <c r="D29">
-        <v>0.171454</v>
-      </c>
-      <c r="E29">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>0.18546899999999999</v>
-      </c>
-      <c r="B30">
-        <v>284</v>
-      </c>
-      <c r="D30">
-        <v>0.17276900000000001</v>
-      </c>
-      <c r="E30">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>0.18552399999999999</v>
-      </c>
-      <c r="B31">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.18953700000000001</v>
+      </c>
+      <c r="B40">
+        <v>329</v>
+      </c>
+      <c r="D40">
+        <v>0.18509400000000001</v>
+      </c>
+      <c r="E40">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.189664</v>
+      </c>
+      <c r="B41">
+        <v>330</v>
+      </c>
+      <c r="D41">
+        <v>0.18518000000000001</v>
+      </c>
+      <c r="E41">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.19361200000000001</v>
+      </c>
+      <c r="B42">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.190881</v>
+      </c>
+      <c r="B43">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.19131500000000001</v>
+      </c>
+      <c r="B44">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.19146299999999999</v>
+      </c>
+      <c r="B45">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.19526099999999999</v>
+      </c>
+      <c r="B46">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.19254299999999999</v>
+      </c>
+      <c r="B47">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.19495999999999999</v>
+      </c>
+      <c r="B48">
+        <v>349</v>
+      </c>
+      <c r="D48">
+        <v>0.185533</v>
+      </c>
+      <c r="E48">
         <v>285</v>
       </c>
-      <c r="D31">
-        <v>0.17410200000000001</v>
-      </c>
-      <c r="E31">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>0.187198</v>
-      </c>
-      <c r="B32">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.19442699999999999</v>
+      </c>
+      <c r="B49">
+        <v>355</v>
+      </c>
+      <c r="D49">
+        <v>0.185589</v>
+      </c>
+      <c r="E49">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.194048</v>
+      </c>
+      <c r="B50">
+        <v>357</v>
+      </c>
+      <c r="D50">
+        <v>0.18564800000000001</v>
+      </c>
+      <c r="E50">
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>0.1857</v>
-      </c>
-      <c r="B33">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.19611300000000001</v>
+      </c>
+      <c r="B51">
+        <v>363</v>
+      </c>
+      <c r="D51">
+        <v>0.18570800000000001</v>
+      </c>
+      <c r="E51">
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>0.18576100000000001</v>
-      </c>
-      <c r="B34">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>0.186164</v>
-      </c>
-      <c r="B35">
-        <v>295</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>0.18631200000000001</v>
-      </c>
-      <c r="B36">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.19606299999999999</v>
+      </c>
+      <c r="B52">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.19684399999999999</v>
+      </c>
+      <c r="B53">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.197043</v>
+      </c>
+      <c r="B54">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.19764999999999999</v>
+      </c>
+      <c r="B55">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.19806299999999999</v>
+      </c>
+      <c r="B56">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.19955800000000001</v>
+      </c>
+      <c r="B57">
+        <v>385</v>
+      </c>
+      <c r="D57">
+        <v>0.18624499999999999</v>
+      </c>
+      <c r="E57">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.20044699999999999</v>
+      </c>
+      <c r="B58">
+        <v>389</v>
+      </c>
+      <c r="D58">
+        <v>0.18632000000000001</v>
+      </c>
+      <c r="E58">
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>0.18654399999999999</v>
-      </c>
-      <c r="B37">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.20182900000000001</v>
+      </c>
+      <c r="B59">
+        <v>395</v>
+      </c>
+      <c r="D59">
+        <v>0.18639600000000001</v>
+      </c>
+      <c r="E59">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.203762</v>
+      </c>
+      <c r="B60">
+        <v>402</v>
+      </c>
+      <c r="D60">
+        <v>0.186553</v>
+      </c>
+      <c r="E60">
         <v>300</v>
       </c>
-      <c r="D37">
-        <v>0.18501400000000001</v>
-      </c>
-      <c r="E37">
-        <v>274</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>0.18687699999999999</v>
-      </c>
-      <c r="B38">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.20502100000000001</v>
+      </c>
+      <c r="B61">
+        <v>407</v>
+      </c>
+      <c r="D61">
+        <v>0.18671599999999999</v>
+      </c>
+      <c r="E61">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.20605799999999999</v>
+      </c>
+      <c r="B62">
+        <v>411</v>
+      </c>
+      <c r="D62">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="E62">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.20685200000000001</v>
+      </c>
+      <c r="B63">
+        <v>414</v>
+      </c>
+      <c r="D63">
+        <v>0.186885</v>
+      </c>
+      <c r="E63">
         <v>304</v>
       </c>
-      <c r="D38">
-        <v>0.185053</v>
-      </c>
-      <c r="E38">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>0.187053</v>
-      </c>
-      <c r="B39">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.20738999999999999</v>
+      </c>
+      <c r="B64">
+        <v>416</v>
+      </c>
+      <c r="D64">
+        <v>0.186973</v>
+      </c>
+      <c r="E64">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.208484</v>
+      </c>
+      <c r="B65">
+        <v>419</v>
+      </c>
+      <c r="D65">
+        <v>0.18706100000000001</v>
+      </c>
+      <c r="E65">
         <v>306</v>
       </c>
-      <c r="D39">
-        <v>0.18509400000000001</v>
-      </c>
-      <c r="E39">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>0.187329</v>
-      </c>
-      <c r="B40">
-        <v>309</v>
-      </c>
-      <c r="D40">
-        <v>0.18518000000000001</v>
-      </c>
-      <c r="E40">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>0.18752099999999999</v>
-      </c>
-      <c r="B41">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>0.187719</v>
-      </c>
-      <c r="B42">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.20932100000000001</v>
+      </c>
+      <c r="B66">
+        <v>422</v>
+      </c>
+      <c r="D66">
+        <v>0.18715200000000001</v>
+      </c>
+      <c r="E66">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.21162500000000001</v>
+      </c>
+      <c r="B67">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.212815</v>
+      </c>
+      <c r="B68">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.213419</v>
+      </c>
+      <c r="B69">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.21612899999999999</v>
+      </c>
+      <c r="B70">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.215586</v>
+      </c>
+      <c r="B71">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.21590200000000001</v>
+      </c>
+      <c r="B72">
+        <v>444</v>
+      </c>
+      <c r="D72">
+        <v>0.18772800000000001</v>
+      </c>
+      <c r="E72">
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>0.18782099999999999</v>
-      </c>
-      <c r="B43">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.21718100000000001</v>
+      </c>
+      <c r="B73">
+        <v>448</v>
+      </c>
+      <c r="D73">
+        <v>0.187829</v>
+      </c>
+      <c r="E73">
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>0.18892500000000001</v>
-      </c>
-      <c r="B44">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.21948200000000001</v>
+      </c>
+      <c r="B74">
+        <v>454</v>
+      </c>
+      <c r="D74">
+        <v>0.18803700000000001</v>
+      </c>
+      <c r="E74">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.22015399999999999</v>
+      </c>
+      <c r="B75">
+        <v>456</v>
+      </c>
+      <c r="D75">
+        <v>0.18814400000000001</v>
+      </c>
+      <c r="E75">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.22117300000000001</v>
+      </c>
+      <c r="B76">
+        <v>459</v>
+      </c>
+      <c r="D76">
+        <v>0.188252</v>
+      </c>
+      <c r="E76">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.22220699999999999</v>
+      </c>
+      <c r="B77">
+        <v>462</v>
+      </c>
+      <c r="D77">
+        <v>0.188585</v>
+      </c>
+      <c r="E77">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.22290499999999999</v>
+      </c>
+      <c r="B78">
+        <v>464</v>
+      </c>
+      <c r="D78">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="E78">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.22325600000000001</v>
+      </c>
+      <c r="B79">
+        <v>465</v>
+      </c>
+      <c r="D79">
+        <v>0.18893299999999999</v>
+      </c>
+      <c r="E79">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>0.18904399999999999</v>
-      </c>
-      <c r="B45">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>0.18953700000000001</v>
-      </c>
-      <c r="B46">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>0.189664</v>
-      </c>
-      <c r="B47">
-        <v>330</v>
-      </c>
-      <c r="D47">
-        <v>0.185533</v>
-      </c>
-      <c r="E47">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>0.19361200000000001</v>
-      </c>
-      <c r="B48">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.22396199999999999</v>
+      </c>
+      <c r="B80">
+        <v>467</v>
+      </c>
+      <c r="D80">
+        <v>0.18929599999999999</v>
+      </c>
+      <c r="E80">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.22431799999999999</v>
+      </c>
+      <c r="B81">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.22941800000000001</v>
+      </c>
+      <c r="B82">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.226854</v>
+      </c>
+      <c r="B83">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.22759199999999999</v>
+      </c>
+      <c r="B84">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.22256300000000001</v>
+      </c>
+      <c r="B85">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.229467</v>
+      </c>
+      <c r="B86">
+        <v>482</v>
+      </c>
+      <c r="D86">
+        <v>0.190197</v>
+      </c>
+      <c r="E86">
         <v>334</v>
       </c>
-      <c r="D48">
-        <v>0.185589</v>
-      </c>
-      <c r="E48">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>0.190881</v>
-      </c>
-      <c r="B49">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>0.190333</v>
+      </c>
+      <c r="E87">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0.190748</v>
+      </c>
+      <c r="E88">
         <v>338</v>
       </c>
-      <c r="D49">
-        <v>0.18564800000000001</v>
-      </c>
-      <c r="E49">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>0.19131500000000001</v>
-      </c>
-      <c r="B50">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>0.190889</v>
+      </c>
+      <c r="E89">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0.19103200000000001</v>
+      </c>
+      <c r="E90">
         <v>340</v>
       </c>
-      <c r="D50">
-        <v>0.18570800000000001</v>
-      </c>
-      <c r="E50">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>0.19146299999999999</v>
-      </c>
-      <c r="B51">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>0.19117700000000001</v>
+      </c>
+      <c r="E91">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>0.19526099999999999</v>
-      </c>
-      <c r="B52">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>0.19132399999999999</v>
+      </c>
+      <c r="E92">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>0.19254299999999999</v>
-      </c>
-      <c r="B53">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0.19223599999999999</v>
+      </c>
+      <c r="E96">
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>0.19495999999999999</v>
-      </c>
-      <c r="B54">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0.19239300000000001</v>
+      </c>
+      <c r="E97">
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>0.19442699999999999</v>
-      </c>
-      <c r="B55">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0.19287599999999999</v>
+      </c>
+      <c r="E98">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0.19303999999999999</v>
+      </c>
+      <c r="E99">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>0.19320499999999999</v>
+      </c>
+      <c r="E100">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>0.19337199999999999</v>
+      </c>
+      <c r="E101">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>0.194048</v>
-      </c>
-      <c r="B56">
-        <v>357</v>
-      </c>
-      <c r="D56">
-        <v>0.18624499999999999</v>
-      </c>
-      <c r="E56">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>0.19611300000000001</v>
-      </c>
-      <c r="B57">
-        <v>363</v>
-      </c>
-      <c r="D57">
-        <v>0.18632000000000001</v>
-      </c>
-      <c r="E57">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>0.19606299999999999</v>
-      </c>
-      <c r="B58">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>0.195132</v>
+      </c>
+      <c r="E107">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>0.19531699999999999</v>
+      </c>
+      <c r="E108">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>0.19569300000000001</v>
+      </c>
+      <c r="E109">
         <v>368</v>
       </c>
-      <c r="D58">
-        <v>0.18639600000000001</v>
-      </c>
-      <c r="E58">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>0.19684399999999999</v>
-      </c>
-      <c r="B59">
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>0.195881</v>
+      </c>
+      <c r="E110">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>0.196072</v>
+      </c>
+      <c r="E111">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>0.19645899999999999</v>
+      </c>
+      <c r="E112">
         <v>372</v>
       </c>
-      <c r="D59">
-        <v>0.186553</v>
-      </c>
-      <c r="E59">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>0.197043</v>
-      </c>
-      <c r="B60">
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>0.196655</v>
+      </c>
+      <c r="E113">
         <v>373</v>
       </c>
-      <c r="D60">
-        <v>0.18671599999999999</v>
-      </c>
-      <c r="E60">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>0.19764999999999999</v>
-      </c>
-      <c r="B61">
-        <v>376</v>
-      </c>
-      <c r="D61">
-        <v>0.18679999999999999</v>
-      </c>
-      <c r="E61">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>0.19806299999999999</v>
-      </c>
-      <c r="B62">
-        <v>378</v>
-      </c>
-      <c r="D62">
-        <v>0.186885</v>
-      </c>
-      <c r="E62">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>0.19955800000000001</v>
-      </c>
-      <c r="B63">
-        <v>385</v>
-      </c>
-      <c r="D63">
-        <v>0.186973</v>
-      </c>
-      <c r="E63">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>0.20044699999999999</v>
-      </c>
-      <c r="B64">
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>0.19745499999999999</v>
+      </c>
+      <c r="E114">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>0.19956699999999999</v>
+      </c>
+      <c r="E121">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>0.19978699999999999</v>
+      </c>
+      <c r="E122">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>0.20000899999999999</v>
+      </c>
+      <c r="E123">
         <v>389</v>
       </c>
-      <c r="D64">
-        <v>0.18706100000000001</v>
-      </c>
-      <c r="E64">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>0.20182900000000001</v>
-      </c>
-      <c r="B65">
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>0.20023199999999999</v>
+      </c>
+      <c r="E124">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>0.200457</v>
+      </c>
+      <c r="E125">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>0.200683</v>
+      </c>
+      <c r="E126">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>0.20091100000000001</v>
+      </c>
+      <c r="E127">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>0.20114099999999999</v>
+      </c>
+      <c r="E128">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>0.201372</v>
+      </c>
+      <c r="E129">
         <v>395</v>
       </c>
-      <c r="D65">
-        <v>0.18715200000000001</v>
-      </c>
-      <c r="E65">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>0.203762</v>
-      </c>
-      <c r="B66">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>0.20502100000000001</v>
-      </c>
-      <c r="B67">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>0.20605799999999999</v>
-      </c>
-      <c r="B68">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>0.20685200000000001</v>
-      </c>
-      <c r="B69">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>0.20738999999999999</v>
-      </c>
-      <c r="B70">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>0.208484</v>
-      </c>
-      <c r="B71">
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>0.20377200000000001</v>
+      </c>
+      <c r="E134">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>0.20477699999999999</v>
+      </c>
+      <c r="E135">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>0.20713100000000001</v>
+      </c>
+      <c r="E141">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>0.207401</v>
+      </c>
+      <c r="E142">
         <v>419</v>
       </c>
-      <c r="D71">
-        <v>0.18772800000000001</v>
-      </c>
-      <c r="E71">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>0.20932100000000001</v>
-      </c>
-      <c r="B72">
-        <v>422</v>
-      </c>
-      <c r="D72">
-        <v>0.187829</v>
-      </c>
-      <c r="E72">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>0.21162500000000001</v>
-      </c>
-      <c r="B73">
-        <v>430</v>
-      </c>
-      <c r="D73">
-        <v>0.18803700000000001</v>
-      </c>
-      <c r="E73">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>0.212815</v>
-      </c>
-      <c r="B74">
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>0.207672</v>
+      </c>
+      <c r="E143">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>0.20794499999999999</v>
+      </c>
+      <c r="E144">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>0.20849500000000001</v>
+      </c>
+      <c r="E145">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>0.21134500000000001</v>
+      </c>
+      <c r="E151">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>0.21163699999999999</v>
+      </c>
+      <c r="E152">
         <v>434</v>
       </c>
-      <c r="D74">
-        <v>0.18814400000000001</v>
-      </c>
-      <c r="E74">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>0.213419</v>
-      </c>
-      <c r="B75">
-        <v>436</v>
-      </c>
-      <c r="D75">
-        <v>0.188252</v>
-      </c>
-      <c r="E75">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>0.21612899999999999</v>
-      </c>
-      <c r="B76">
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>0.21193200000000001</v>
+      </c>
+      <c r="E153">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>0.21252699999999999</v>
+      </c>
+      <c r="E154">
         <v>437</v>
       </c>
-      <c r="D76">
-        <v>0.188585</v>
-      </c>
-      <c r="E76">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>0.215586</v>
-      </c>
-      <c r="B77">
-        <v>443</v>
-      </c>
-      <c r="D77">
-        <v>0.18870000000000001</v>
-      </c>
-      <c r="E77">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>0.21590200000000001</v>
-      </c>
-      <c r="B78">
-        <v>444</v>
-      </c>
-      <c r="D78">
-        <v>0.18893299999999999</v>
-      </c>
-      <c r="E78">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>0.21718100000000001</v>
-      </c>
-      <c r="B79">
-        <v>448</v>
-      </c>
-      <c r="D79">
-        <v>0.18929599999999999</v>
-      </c>
-      <c r="E79">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>0.21948200000000001</v>
-      </c>
-      <c r="B80">
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>0.21282699999999999</v>
+      </c>
+      <c r="E155">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>0.21343200000000001</v>
+      </c>
+      <c r="E156">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>0.21373600000000001</v>
+      </c>
+      <c r="E157">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>0.21655199999999999</v>
+      </c>
+      <c r="E164">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>0.21687200000000001</v>
+      </c>
+      <c r="E165">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>0.217195</v>
+      </c>
+      <c r="E166">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>0.21784400000000001</v>
+      </c>
+      <c r="E167">
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>0.22015399999999999</v>
-      </c>
-      <c r="B81">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>0.218171</v>
+      </c>
+      <c r="E168">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>0.2185</v>
+      </c>
+      <c r="E169">
         <v>456</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>0.22117300000000001</v>
-      </c>
-      <c r="B82">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>0.219163</v>
+      </c>
+      <c r="E170">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>0.219496</v>
+      </c>
+      <c r="E171">
         <v>459</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>0.22220699999999999</v>
-      </c>
-      <c r="B83">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>0.22290499999999999</v>
-      </c>
-      <c r="B84">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>0.22325600000000001</v>
-      </c>
-      <c r="B85">
-        <v>465</v>
-      </c>
-      <c r="D85">
-        <v>0.190197</v>
-      </c>
-      <c r="E85">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>0.22396199999999999</v>
-      </c>
-      <c r="B86">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>0.220168</v>
+      </c>
+      <c r="E172">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>0.222223</v>
+      </c>
+      <c r="E177">
         <v>467</v>
       </c>
-      <c r="D86">
-        <v>0.190333</v>
-      </c>
-      <c r="E86">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>0.22431799999999999</v>
-      </c>
-      <c r="B87">
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>0.22257099999999999</v>
+      </c>
+      <c r="E178">
         <v>468</v>
       </c>
-      <c r="D87">
-        <v>0.190748</v>
-      </c>
-      <c r="E87">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>0.22941800000000001</v>
-      </c>
-      <c r="B88">
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>0.22292000000000001</v>
+      </c>
+      <c r="E179">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>0.22397900000000001</v>
+      </c>
+      <c r="E182">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>0.22433400000000001</v>
+      </c>
+      <c r="E183">
         <v>473</v>
       </c>
-      <c r="D88">
-        <v>0.190889</v>
-      </c>
-      <c r="E88">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>0.226854</v>
-      </c>
-      <c r="B89">
-        <v>475</v>
-      </c>
-      <c r="D89">
-        <v>0.19103200000000001</v>
-      </c>
-      <c r="E89">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>0.22759199999999999</v>
-      </c>
-      <c r="B90">
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>0.224692</v>
+      </c>
+      <c r="E184">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>0.225412</v>
+      </c>
+      <c r="E185">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>0.225774</v>
+      </c>
+      <c r="E186">
         <v>477</v>
       </c>
-      <c r="D90">
-        <v>0.19117700000000001</v>
-      </c>
-      <c r="E90">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>0.22256300000000001</v>
-      </c>
-      <c r="B91">
-        <v>479</v>
-      </c>
-      <c r="D91">
-        <v>0.19132399999999999</v>
-      </c>
-      <c r="E91">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>0.229467</v>
-      </c>
-      <c r="B92">
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>0.22687099999999999</v>
+      </c>
+      <c r="E189">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>0.22761000000000001</v>
+      </c>
+      <c r="E190">
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D95">
-        <v>0.19223599999999999</v>
-      </c>
-      <c r="E95">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D96">
-        <v>0.19239300000000001</v>
-      </c>
-      <c r="E96">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D97">
-        <v>0.19287599999999999</v>
-      </c>
-      <c r="E97">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D98">
-        <v>0.19303999999999999</v>
-      </c>
-      <c r="E98">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D99">
-        <v>0.19320499999999999</v>
-      </c>
-      <c r="E99">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D100">
-        <v>0.19337199999999999</v>
-      </c>
-      <c r="E100">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D106">
-        <v>0.195132</v>
-      </c>
-      <c r="E106">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D107">
-        <v>0.19531699999999999</v>
-      </c>
-      <c r="E107">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D108">
-        <v>0.19569300000000001</v>
-      </c>
-      <c r="E108">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D109">
-        <v>0.195881</v>
-      </c>
-      <c r="E109">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D110">
-        <v>0.196072</v>
-      </c>
-      <c r="E110">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D111">
-        <v>0.19645899999999999</v>
-      </c>
-      <c r="E111">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D112">
-        <v>0.196655</v>
-      </c>
-      <c r="E112">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D113">
-        <v>0.19745499999999999</v>
-      </c>
-      <c r="E113">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D120">
-        <v>0.19956699999999999</v>
-      </c>
-      <c r="E120">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D121">
-        <v>0.19978699999999999</v>
-      </c>
-      <c r="E121">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D122">
-        <v>0.20000899999999999</v>
-      </c>
-      <c r="E122">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D123">
-        <v>0.20023199999999999</v>
-      </c>
-      <c r="E123">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D124">
-        <v>0.200457</v>
-      </c>
-      <c r="E124">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D125">
-        <v>0.200683</v>
-      </c>
-      <c r="E125">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D126">
-        <v>0.20091100000000001</v>
-      </c>
-      <c r="E126">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D127">
-        <v>0.20114099999999999</v>
-      </c>
-      <c r="E127">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D128">
-        <v>0.201372</v>
-      </c>
-      <c r="E128">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D133">
-        <v>0.20377200000000001</v>
-      </c>
-      <c r="E133">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D134">
-        <v>0.20477699999999999</v>
-      </c>
-      <c r="E134">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D140">
-        <v>0.20713100000000001</v>
-      </c>
-      <c r="E140">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D141">
-        <v>0.207401</v>
-      </c>
-      <c r="E141">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D142">
-        <v>0.207672</v>
-      </c>
-      <c r="E142">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D143">
-        <v>0.20794499999999999</v>
-      </c>
-      <c r="E143">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D144">
-        <v>0.20849500000000001</v>
-      </c>
-      <c r="E144">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D150">
-        <v>0.21134500000000001</v>
-      </c>
-      <c r="E150">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D151">
-        <v>0.21163699999999999</v>
-      </c>
-      <c r="E151">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D152">
-        <v>0.21193200000000001</v>
-      </c>
-      <c r="E152">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D153">
-        <v>0.21252699999999999</v>
-      </c>
-      <c r="E153">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D154">
-        <v>0.21282699999999999</v>
-      </c>
-      <c r="E154">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D155">
-        <v>0.21343200000000001</v>
-      </c>
-      <c r="E155">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D156">
-        <v>0.21373600000000001</v>
-      </c>
-      <c r="E156">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D163">
-        <v>0.21655199999999999</v>
-      </c>
-      <c r="E163">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D164">
-        <v>0.21687200000000001</v>
-      </c>
-      <c r="E164">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D165">
-        <v>0.217195</v>
-      </c>
-      <c r="E165">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D166">
-        <v>0.21784400000000001</v>
-      </c>
-      <c r="E166">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D167">
-        <v>0.218171</v>
-      </c>
-      <c r="E167">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D168">
-        <v>0.2185</v>
-      </c>
-      <c r="E168">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D169">
-        <v>0.219163</v>
-      </c>
-      <c r="E169">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D170">
-        <v>0.219496</v>
-      </c>
-      <c r="E170">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D171">
-        <v>0.220168</v>
-      </c>
-      <c r="E171">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D176">
-        <v>0.222223</v>
-      </c>
-      <c r="E176">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D177">
-        <v>0.22257099999999999</v>
-      </c>
-      <c r="E177">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D178">
-        <v>0.22292000000000001</v>
-      </c>
-      <c r="E178">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D181">
-        <v>0.22397900000000001</v>
-      </c>
-      <c r="E181">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D182">
-        <v>0.22433400000000001</v>
-      </c>
-      <c r="E182">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D183">
-        <v>0.224692</v>
-      </c>
-      <c r="E183">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D184">
-        <v>0.225412</v>
-      </c>
-      <c r="E184">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D185">
-        <v>0.225774</v>
-      </c>
-      <c r="E185">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D188">
-        <v>0.22687099999999999</v>
-      </c>
-      <c r="E188">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D189">
-        <v>0.22761000000000001</v>
-      </c>
-      <c r="E189">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D190">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D191">
         <v>0.229051</v>
       </c>
-      <c r="E190">
+      <c r="E191">
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D191">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D192">
         <v>0.228356</v>
       </c>
-      <c r="E191">
+      <c r="E192">
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D194">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D195">
         <v>0.22986599999999999</v>
       </c>
-      <c r="E194">
+      <c r="E195">
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D195">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D196">
         <v>0.23024800000000001</v>
       </c>
-      <c r="E195">
+      <c r="E196">
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D198">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D199">
         <v>0.23179</v>
       </c>
-      <c r="E198">
+      <c r="E199">
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D199">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D200">
         <v>0.23218</v>
       </c>
-      <c r="E199">
+      <c r="E200">
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D200">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D201">
         <v>0.23335800000000001</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <v>497</v>
       </c>
     </row>
@@ -19427,44 +19404,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH13" sqref="BH13"/>
+    <sheetView tabSelected="1" topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="5"/>
-    <col min="10" max="11" width="8.90625" style="2"/>
-    <col min="12" max="12" width="7.08984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" style="2"/>
-    <col min="14" max="14" width="11.90625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="5"/>
-    <col min="19" max="19" width="9.08984375" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="5"/>
-    <col min="25" max="25" width="8.90625" style="5"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="7.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="5"/>
+    <col min="19" max="19" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="5"/>
+    <col min="25" max="25" width="8.88671875" style="5"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="5" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.1796875" customWidth="1"/>
-    <col min="38" max="38" width="8.90625" style="5"/>
-    <col min="40" max="42" width="21.54296875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="13.453125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="5"/>
+    <col min="40" max="42" width="21.5546875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="13.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:47" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -19483,7 +19460,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="H2"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
@@ -19506,7 +19483,7 @@
       <c r="AG2" s="2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="H3"/>
       <c r="K3" s="3" t="s">
         <v>6</v>
@@ -19529,7 +19506,7 @@
       <c r="AG3" s="2"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -19546,7 +19523,7 @@
       <c r="AG4" s="2"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -19558,7 +19535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -19637,7 +19614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.046</v>
       </c>
@@ -19779,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.046</v>
       </c>
@@ -19917,7 +19894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.0469999999999999</v>
       </c>
@@ -20061,7 +20038,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.0489999999999999</v>
       </c>
@@ -20205,7 +20182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.8620000000000001</v>
       </c>
@@ -20351,7 +20328,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.863</v>
       </c>
@@ -20497,7 +20474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.8640000000000001</v>
       </c>
@@ -20643,7 +20620,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.8680000000000001</v>
       </c>
@@ -20789,7 +20766,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.508</v>
       </c>
@@ -20935,7 +20912,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.5089999999999999</v>
       </c>
@@ -21081,7 +21058,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5089999999999999</v>
       </c>
@@ -21227,7 +21204,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5099999999999998</v>
       </c>
@@ -21373,7 +21350,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5110000000000001</v>
       </c>
@@ -21519,7 +21496,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5129999999999999</v>
       </c>
@@ -21665,7 +21642,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.516</v>
       </c>
@@ -21805,7 +21782,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.0329999999999999</v>
       </c>
@@ -21945,7 +21922,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3.0339999999999998</v>
       </c>
@@ -22085,7 +22062,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.0350000000000001</v>
       </c>
@@ -22225,7 +22202,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3.036</v>
       </c>
@@ -22365,7 +22342,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.036</v>
       </c>
@@ -22505,7 +22482,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.0390000000000001</v>
       </c>
@@ -22645,7 +22622,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.0430000000000001</v>
       </c>
@@ -22785,7 +22762,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.7250000000000001</v>
       </c>
@@ -22925,7 +22902,7 @@
         <v>2.2000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3.726</v>
       </c>
@@ -23065,7 +23042,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.7309999999999999</v>
       </c>
@@ -23205,7 +23182,7 @@
         <v>2.4000000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3.738</v>
       </c>
@@ -23337,7 +23314,7 @@
         <v>1.0853999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4.883</v>
       </c>
@@ -23469,7 +23446,7 @@
         <v>1.1773</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4.8849999999999998</v>
       </c>
@@ -23601,7 +23578,7 @@
         <v>1.1841999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4.8860000000000001</v>
       </c>
@@ -23733,7 +23710,7 @@
         <v>1.1852</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4.8869999999999996</v>
       </c>
@@ -23865,7 +23842,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4.8899999999999997</v>
       </c>
@@ -23997,7 +23974,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4.8940000000000001</v>
       </c>
@@ -24129,7 +24106,7 @@
         <v>1.1655</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -24261,7 +24238,7 @@
         <v>1.1509</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5.1020000000000003</v>
       </c>
@@ -24393,7 +24370,7 @@
         <v>1.1949000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.1040000000000001</v>
       </c>
@@ -24525,7 +24502,7 @@
         <v>1.2022999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.1079999999999997</v>
       </c>
@@ -24657,7 +24634,7 @@
         <v>1.1871</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.1130000000000004</v>
       </c>
@@ -24789,7 +24766,7 @@
         <v>1.1748000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.1189999999999998</v>
       </c>
@@ -24921,7 +24898,7 @@
         <v>1.1572</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5.6459999999999999</v>
       </c>
@@ -25053,7 +25030,7 @@
         <v>1.2384999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.649</v>
       </c>
@@ -25185,7 +25162,7 @@
         <v>1.2398</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.6520000000000001</v>
       </c>
@@ -25317,7 +25294,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.6660000000000004</v>
       </c>
@@ -25449,7 +25426,7 @@
         <v>1.1889000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.1020000000000003</v>
       </c>
@@ -25581,7 +25558,7 @@
         <v>1.2747999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6.1029999999999998</v>
       </c>
@@ -25713,7 +25690,7 @@
         <v>1.2746999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.1040000000000001</v>
       </c>
@@ -25845,7 +25822,7 @@
         <v>1.2718</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6.1050000000000004</v>
       </c>
@@ -25977,7 +25954,7 @@
         <v>1.2637</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.1079999999999997</v>
       </c>
@@ -26109,7 +26086,7 @@
         <v>1.2503</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.1120000000000001</v>
       </c>
@@ -26241,7 +26218,7 @@
         <v>1.2353000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.117</v>
       </c>
@@ -26373,7 +26350,7 @@
         <v>1.2165999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.12</v>
       </c>
@@ -26505,7 +26482,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6.1210000000000004</v>
       </c>
@@ -26637,7 +26614,7 @@
         <v>1.2742</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.1219999999999999</v>
       </c>
@@ -26769,7 +26746,7 @@
         <v>1.2719</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6.1230000000000002</v>
       </c>
@@ -26901,7 +26878,7 @@
         <v>1.2626999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.1260000000000003</v>
       </c>
@@ -27033,7 +27010,7 @@
         <v>1.2495000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6.13</v>
       </c>
@@ -27165,7 +27142,7 @@
         <v>1.2351000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6.1349999999999998</v>
       </c>
@@ -27305,23 +27282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27544,10 +27504,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27570,20 +27558,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\NaCl - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075EB62-A2FC-491A-95CF-8CC5AA0AF6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DDF8F-99FD-4424-A8E0-609DDB99D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" activeTab="2" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Graph - Paper" sheetId="2" r:id="rId1"/>
@@ -5735,41 +5735,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
+                  <c:v>1.29763E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1610899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0074199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.40091E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4966099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2144999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9713899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7680799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9336499999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.104861</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.12973899999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.104861</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9336499999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7680799999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9713899999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2144999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4396300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4966099999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.40091E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0074199999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1610899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.29763E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.15817100000000001</c:v>
@@ -5781,214 +5778,175 @@
                   <c:v>0.16042300000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.163936</c:v>
+                  <c:v>0.16636699999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16245799999999999</c:v>
+                  <c:v>0.16761000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16636699999999999</c:v>
+                  <c:v>0.16887099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16761000000000001</c:v>
+                  <c:v>0.18504399999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16887099999999999</c:v>
+                  <c:v>0.18512799999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18504399999999999</c:v>
+                  <c:v>0.18546899999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18512799999999999</c:v>
+                  <c:v>0.18552399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.18546899999999999</c:v>
+                  <c:v>0.1857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18552399999999999</c:v>
+                  <c:v>0.18576100000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.187198</c:v>
+                  <c:v>0.186164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1857</c:v>
+                  <c:v>0.18631200000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18576100000000001</c:v>
+                  <c:v>0.18654399999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.186164</c:v>
+                  <c:v>0.18687699999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18631200000000001</c:v>
+                  <c:v>0.187053</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18654399999999999</c:v>
+                  <c:v>0.187329</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18687699999999999</c:v>
+                  <c:v>0.18752099999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.187053</c:v>
+                  <c:v>0.187719</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.187329</c:v>
+                  <c:v>0.18782099999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.18752099999999999</c:v>
+                  <c:v>0.18892500000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.187719</c:v>
+                  <c:v>0.18904399999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.18782099999999999</c:v>
+                  <c:v>0.18953700000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18892500000000001</c:v>
+                  <c:v>0.189664</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18904399999999999</c:v>
+                  <c:v>0.190881</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.18953700000000001</c:v>
+                  <c:v>0.19131500000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.189664</c:v>
+                  <c:v>0.19146299999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.19361200000000001</c:v>
+                  <c:v>0.19254299999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.190881</c:v>
+                  <c:v>0.19442699999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19131500000000001</c:v>
+                  <c:v>0.19684399999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.19146299999999999</c:v>
+                  <c:v>0.197043</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.19526099999999999</c:v>
+                  <c:v>0.19764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.19254299999999999</c:v>
+                  <c:v>0.19806299999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.19495999999999999</c:v>
+                  <c:v>0.19955800000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.19442699999999999</c:v>
+                  <c:v>0.20044699999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.194048</c:v>
+                  <c:v>0.20182900000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.19611300000000001</c:v>
+                  <c:v>0.203762</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.19606299999999999</c:v>
+                  <c:v>0.20502100000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19684399999999999</c:v>
+                  <c:v>0.20605799999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.197043</c:v>
+                  <c:v>0.20685200000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.19764999999999999</c:v>
+                  <c:v>0.20738999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.19806299999999999</c:v>
+                  <c:v>0.208484</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.19955800000000001</c:v>
+                  <c:v>0.20932100000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.20044699999999999</c:v>
+                  <c:v>0.21162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.20182900000000001</c:v>
+                  <c:v>0.212815</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.203762</c:v>
+                  <c:v>0.213419</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.20502100000000001</c:v>
+                  <c:v>0.215586</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20605799999999999</c:v>
+                  <c:v>0.21590200000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.20685200000000001</c:v>
+                  <c:v>0.21718100000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.20738999999999999</c:v>
+                  <c:v>0.21948200000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.208484</c:v>
+                  <c:v>0.22015399999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.20932100000000001</c:v>
+                  <c:v>0.22117300000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.21162500000000001</c:v>
+                  <c:v>0.22220699999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.212815</c:v>
+                  <c:v>0.22290499999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.213419</c:v>
+                  <c:v>0.22325600000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.21612899999999999</c:v>
+                  <c:v>0.22396199999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.215586</c:v>
+                  <c:v>0.22431799999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.21590200000000001</c:v>
+                  <c:v>0.226854</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.21718100000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.21948200000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.22015399999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.22117300000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.22220699999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.22290499999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.22325600000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.22396199999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.22431799999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.22941800000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.226854</c:v>
-                </c:pt>
-                <c:pt idx="82">
                   <c:v>0.22759199999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.22256300000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.229467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5999,41 +5957,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
-                <c:pt idx="0">
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>255</c:v>
@@ -6045,214 +6000,175 @@
                   <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>260</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>261</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>262</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>263</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>264</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>275</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>277</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>284</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>287</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>288</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>289</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>295</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>297</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>304</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>306</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>309</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>311</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>313</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>314</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>324</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>325</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>329</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>330</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>334</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>338</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>340</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>341</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>342</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>348</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>349</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>355</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>357</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>363</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>368</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>372</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>373</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>376</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>378</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>385</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>389</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>395</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>402</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>407</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>411</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>414</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>416</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>419</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>422</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>430</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>434</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>436</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>437</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>443</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>444</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="82">
                   <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6278,826 +6194,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Experimental Data</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$D$2:$D$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>1.5902699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.15353E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9703E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8424600000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.66723E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2159499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9725899999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.7113399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.4321599999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1350200000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8199099999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.104868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.111357</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.11766699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.123796</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.129746</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.135515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14110500000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14651500000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15174399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.16042999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.161583</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.16275400000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.16394300000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.16514999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.166375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16761699999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.170157</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.171454</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.17276900000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.17410200000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.18501400000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.185053</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.18509400000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.18518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.185533</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.185589</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.18564800000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.18570800000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.18624499999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.18632000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.18639600000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.186553</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.18671599999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.18679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.186885</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.186973</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.18706100000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.18715200000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.18772800000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.187829</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.18803700000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.18814400000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.188252</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.188585</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.18870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.18893299999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.18929599999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.190197</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.190333</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.190748</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.190889</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.19103200000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.19117700000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.19132399999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.19223599999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.19239300000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.19287599999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.19303999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.19320499999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.19337199999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.195132</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.19531699999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.19569300000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.195881</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.196072</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.19645899999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.196655</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.19745499999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.19956699999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.19978699999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.20000899999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.20023199999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.200457</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.200683</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.20091100000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.20114099999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.201372</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.20377200000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.20477699999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.20713100000000001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.207401</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.207672</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.20794499999999999</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.20849500000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.21134500000000001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.21163699999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.21193200000000001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.21252699999999999</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.21282699999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.21343200000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.21373600000000001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.21655199999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.21687200000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.217195</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.21784400000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.218171</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.2185</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.219163</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.219496</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.220168</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.222223</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.22257099999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.22292000000000001</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.22397900000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.22433400000000001</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.224692</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.225412</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.225774</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.22687099999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.22761000000000001</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.229051</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.228356</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.22986599999999999</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.23024800000000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.23179</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.23218</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.23335800000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Complete Graph 2 - Paper'!$E$2:$E$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3834-4E88-A90E-997A54AC9675}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7108,6 +6204,844 @@
         </c:dLbls>
         <c:axId val="919727360"/>
         <c:axId val="1881983631"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Experimental Data</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="8"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Complete Graph 2 - Paper'!$D$2:$D$201</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="200"/>
+                      <c:pt idx="0">
+                        <c:v>1.5902699999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.15353E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9703E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.8424600000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.66723E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.2159499999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.9725899999999993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.7113399999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.4321599999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.1350200000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.8199099999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.104868</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.111357</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.11766699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.123796</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.129746</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.135515</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.14110500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.14651500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.15174399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.16042999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.161583</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.16275400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.16394300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.16514999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.166375</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.16761699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.170157</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.171454</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.17276900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.17410200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.18501400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.185053</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.18509400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.18518000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.185533</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.185589</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.18564800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.18570800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.18624499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.18632000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.18639600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.186553</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.18671599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.18679999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.186885</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.186973</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.18706100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.18715200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.18772800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.187829</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.18803700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.18814400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.188252</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.188585</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.18870000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.18893299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.18929599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.190197</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.190333</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.190748</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.190889</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.19103200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.19117700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.19132399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.19223599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.19239300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.19287599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.19303999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.19320499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.19337199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>0.195132</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0.19531699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0.19569300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0.195881</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0.196072</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>0.19645899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0.196655</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0.19745499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>0.19956699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>0.19978699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>0.20000899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0.20023199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0.200457</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0.200683</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>0.20091100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>0.20114099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0.201372</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>0.20377200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>0.20477699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0.20713100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>0.207401</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>0.207672</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0.20794499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0.20849500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0.21134500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>0.21163699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>0.21193200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>0.21252699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>0.21282699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>0.21343200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>0.21373600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0.21655199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0.21687200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0.217195</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>0.21784400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>0.218171</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0.2185</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0.219163</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0.219496</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>0.220168</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>0.222223</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>0.22257099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>0.22292000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>0.22397900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>0.22433400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>0.224692</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>0.225412</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>0.225774</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0.22687099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0.22761000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0.229051</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>0.228356</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>0.22986599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>0.23024800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>0.23179</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>0.23218</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>0.23335800000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Complete Graph 2 - Paper'!$E$2:$E$201</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="200"/>
+                      <c:pt idx="0">
+                        <c:v>273</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>271</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>267</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>266</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>265</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>264</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>263</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>262</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>261</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>259</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>258</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>257</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>254</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>253</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>258</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>259</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>261</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>262</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>263</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>264</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>266</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>267</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>268</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>274</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>275</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>276</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>285</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>286</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>287</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>288</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>297</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>298</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>302</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>303</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>305</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>306</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>307</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>313</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>316</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>317</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>318</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>321</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>322</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>324</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>327</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>334</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>335</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>338</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>339</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>342</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>348</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>349</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>352</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>353</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>354</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>355</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>365</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>366</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>368</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>369</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>372</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>373</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>377</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>387</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>388</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>389</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>391</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>392</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>393</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>394</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>395</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>405</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>409</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>418</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>419</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>421</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>423</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>433</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>434</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>435</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>437</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>438</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>440</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>441</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>451</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>452</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>454</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>455</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>456</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>458</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>459</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>461</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>467</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>468</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>469</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>472</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>473</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>474</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>476</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>477</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>480</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>483</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>484</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>488</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>489</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>493</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>494</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>497</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3834-4E88-A90E-997A54AC9675}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="919727360"/>
@@ -17786,8 +17720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17801,12 +17735,6 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.12973899999999999</v>
-      </c>
-      <c r="B2">
-        <v>257</v>
-      </c>
       <c r="D2" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -17817,10 +17745,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.104861</v>
+        <v>1.29763E-2</v>
       </c>
       <c r="B3">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D3">
         <v>2.15353E-2</v>
@@ -17831,10 +17759,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9.9336499999999994E-2</v>
+        <v>2.1610899999999999E-2</v>
       </c>
       <c r="B4">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D4">
         <v>2.9703E-2</v>
@@ -17847,10 +17775,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.7680799999999994E-2</v>
+        <v>3.0074199999999999E-2</v>
       </c>
       <c r="B5">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D5">
         <v>3.8424600000000003E-2</v>
@@ -17861,10 +17789,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6.9713899999999995E-2</v>
+        <v>3.40091E-2</v>
       </c>
       <c r="B6">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <v>4.66723E-2</v>
@@ -17875,10 +17803,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6.2144999999999999E-2</v>
+        <v>5.4966099999999997E-2</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7">
         <v>6.2159499999999999E-2</v>
@@ -17889,10 +17817,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5.4396300000000002E-2</v>
+        <v>6.2144999999999999E-2</v>
       </c>
       <c r="B8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8">
         <v>6.9725899999999993E-2</v>
@@ -17903,10 +17831,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5.4966099999999997E-2</v>
+        <v>6.9713899999999995E-2</v>
       </c>
       <c r="B9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D9">
         <v>7.7113399999999999E-2</v>
@@ -17917,10 +17845,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.40091E-2</v>
+        <v>7.7680799999999994E-2</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D10">
         <v>8.4321599999999997E-2</v>
@@ -17931,10 +17859,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3.0074199999999999E-2</v>
+        <v>9.9336499999999994E-2</v>
       </c>
       <c r="B11">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D11">
         <v>9.1350200000000006E-2</v>
@@ -17945,10 +17873,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2.1610899999999999E-2</v>
+        <v>0.104861</v>
       </c>
       <c r="B12">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D12">
         <v>9.8199099999999998E-2</v>
@@ -17959,10 +17887,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.29763E-2</v>
+        <v>0.12973899999999999</v>
       </c>
       <c r="B13">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D13">
         <v>0.104868</v>
@@ -18015,10 +17943,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.163936</v>
+        <v>0.16636699999999999</v>
       </c>
       <c r="B17">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D17">
         <v>0.129746</v>
@@ -18029,10 +17957,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.16245799999999999</v>
+        <v>0.16761000000000001</v>
       </c>
       <c r="B18">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>0.135515</v>
@@ -18043,10 +17971,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.16636699999999999</v>
+        <v>0.16887099999999999</v>
       </c>
       <c r="B19">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D19">
         <v>0.14110500000000001</v>
@@ -18057,10 +17985,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.16761000000000001</v>
+        <v>0.18504399999999999</v>
       </c>
       <c r="B20">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D20">
         <v>0.14651500000000001</v>
@@ -18071,10 +17999,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.16887099999999999</v>
+        <v>0.18512799999999999</v>
       </c>
       <c r="B21">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D21">
         <v>0.15174399999999999</v>
@@ -18085,10 +18013,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.18504399999999999</v>
+        <v>0.18546899999999999</v>
       </c>
       <c r="B22">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D22">
         <v>0.16042999999999999</v>
@@ -18099,10 +18027,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.18512799999999999</v>
+        <v>0.18552399999999999</v>
       </c>
       <c r="B23">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D23">
         <v>0.161583</v>
@@ -18113,10 +18041,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.18546899999999999</v>
+        <v>0.1857</v>
       </c>
       <c r="B24">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D24">
         <v>0.16275400000000001</v>
@@ -18127,10 +18055,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.18552399999999999</v>
+        <v>0.18576100000000001</v>
       </c>
       <c r="B25">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D25">
         <v>0.16394300000000001</v>
@@ -18141,10 +18069,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.187198</v>
+        <v>0.186164</v>
       </c>
       <c r="B26">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D26">
         <v>0.16514999999999999</v>
@@ -18155,10 +18083,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.1857</v>
+        <v>0.18631200000000001</v>
       </c>
       <c r="B27">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D27">
         <v>0.166375</v>
@@ -18169,10 +18097,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.18576100000000001</v>
+        <v>0.18654399999999999</v>
       </c>
       <c r="B28">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D28">
         <v>0.16761699999999999</v>
@@ -18183,10 +18111,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.186164</v>
+        <v>0.18687699999999999</v>
       </c>
       <c r="B29">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D29">
         <v>0.170157</v>
@@ -18197,10 +18125,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.18631200000000001</v>
+        <v>0.187053</v>
       </c>
       <c r="B30">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D30">
         <v>0.171454</v>
@@ -18211,10 +18139,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.18654399999999999</v>
+        <v>0.187329</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D31">
         <v>0.17276900000000001</v>
@@ -18225,10 +18153,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.18687699999999999</v>
+        <v>0.18752099999999999</v>
       </c>
       <c r="B32">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D32">
         <v>0.17410200000000001</v>
@@ -18239,52 +18167,52 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.187053</v>
+        <v>0.187719</v>
       </c>
       <c r="B33">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.187329</v>
+        <v>0.18782099999999999</v>
       </c>
       <c r="B34">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.18752099999999999</v>
+        <v>0.18892500000000001</v>
       </c>
       <c r="B35">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.187719</v>
+        <v>0.18904399999999999</v>
       </c>
       <c r="B36">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.18782099999999999</v>
+        <v>0.18953700000000001</v>
       </c>
       <c r="B37">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.18892500000000001</v>
+        <v>0.189664</v>
       </c>
       <c r="B38">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D38">
         <v>0.18501400000000001</v>
@@ -18297,10 +18225,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.18904399999999999</v>
+        <v>0.190881</v>
       </c>
       <c r="B39">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D39">
         <v>0.185053</v>
@@ -18311,10 +18239,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.18953700000000001</v>
+        <v>0.19131500000000001</v>
       </c>
       <c r="B40">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="D40">
         <v>0.18509400000000001</v>
@@ -18325,10 +18253,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.189664</v>
+        <v>0.19146299999999999</v>
       </c>
       <c r="B41">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D41">
         <v>0.18518000000000001</v>
@@ -18339,58 +18267,58 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.19361200000000001</v>
+        <v>0.19254299999999999</v>
       </c>
       <c r="B42">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.190881</v>
+        <v>0.19442699999999999</v>
       </c>
       <c r="B43">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.19131500000000001</v>
+        <v>0.19684399999999999</v>
       </c>
       <c r="B44">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.19146299999999999</v>
+        <v>0.197043</v>
       </c>
       <c r="B45">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.19526099999999999</v>
+        <v>0.19764999999999999</v>
       </c>
       <c r="B46">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.19254299999999999</v>
+        <v>0.19806299999999999</v>
       </c>
       <c r="B47">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.19495999999999999</v>
+        <v>0.19955800000000001</v>
       </c>
       <c r="B48">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="D48">
         <v>0.185533</v>
@@ -18401,10 +18329,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.19442699999999999</v>
+        <v>0.20044699999999999</v>
       </c>
       <c r="B49">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="D49">
         <v>0.185589</v>
@@ -18415,10 +18343,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.194048</v>
+        <v>0.20182900000000001</v>
       </c>
       <c r="B50">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="D50">
         <v>0.18564800000000001</v>
@@ -18429,10 +18357,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.19611300000000001</v>
+        <v>0.203762</v>
       </c>
       <c r="B51">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D51">
         <v>0.18570800000000001</v>
@@ -18443,50 +18371,50 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.19606299999999999</v>
+        <v>0.20502100000000001</v>
       </c>
       <c r="B52">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.19684399999999999</v>
+        <v>0.20605799999999999</v>
       </c>
       <c r="B53">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>0.197043</v>
+        <v>0.20685200000000001</v>
       </c>
       <c r="B54">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>0.19764999999999999</v>
+        <v>0.20738999999999999</v>
       </c>
       <c r="B55">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0.19806299999999999</v>
+        <v>0.208484</v>
       </c>
       <c r="B56">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.19955800000000001</v>
+        <v>0.20932100000000001</v>
       </c>
       <c r="B57">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="D57">
         <v>0.18624499999999999</v>
@@ -18497,10 +18425,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.20044699999999999</v>
+        <v>0.21162500000000001</v>
       </c>
       <c r="B58">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="D58">
         <v>0.18632000000000001</v>
@@ -18511,10 +18439,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.20182900000000001</v>
+        <v>0.212815</v>
       </c>
       <c r="B59">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="D59">
         <v>0.18639600000000001</v>
@@ -18525,10 +18453,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.203762</v>
+        <v>0.213419</v>
       </c>
       <c r="B60">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D60">
         <v>0.186553</v>
@@ -18539,10 +18467,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.20502100000000001</v>
+        <v>0.215586</v>
       </c>
       <c r="B61">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="D61">
         <v>0.18671599999999999</v>
@@ -18553,10 +18481,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.20605799999999999</v>
+        <v>0.21590200000000001</v>
       </c>
       <c r="B62">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="D62">
         <v>0.18679999999999999</v>
@@ -18567,10 +18495,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.20685200000000001</v>
+        <v>0.21718100000000001</v>
       </c>
       <c r="B63">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="D63">
         <v>0.186885</v>
@@ -18581,10 +18509,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.20738999999999999</v>
+        <v>0.21948200000000001</v>
       </c>
       <c r="B64">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="D64">
         <v>0.186973</v>
@@ -18595,10 +18523,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.208484</v>
+        <v>0.22015399999999999</v>
       </c>
       <c r="B65">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="D65">
         <v>0.18706100000000001</v>
@@ -18609,10 +18537,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.20932100000000001</v>
+        <v>0.22117300000000001</v>
       </c>
       <c r="B66">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="D66">
         <v>0.18715200000000001</v>
@@ -18623,50 +18551,50 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.21162500000000001</v>
+        <v>0.22220699999999999</v>
       </c>
       <c r="B67">
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.212815</v>
+        <v>0.22290499999999999</v>
       </c>
       <c r="B68">
-        <v>434</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.213419</v>
+        <v>0.22325600000000001</v>
       </c>
       <c r="B69">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.21612899999999999</v>
+        <v>0.22396199999999999</v>
       </c>
       <c r="B70">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.215586</v>
+        <v>0.22431799999999999</v>
       </c>
       <c r="B71">
-        <v>443</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.21590200000000001</v>
+        <v>0.226854</v>
       </c>
       <c r="B72">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="D72">
         <v>0.18772800000000001</v>
@@ -18677,10 +18605,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.21718100000000001</v>
+        <v>0.22759199999999999</v>
       </c>
       <c r="B73">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D73">
         <v>0.187829</v>
@@ -18690,12 +18618,6 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>0.21948200000000001</v>
-      </c>
-      <c r="B74">
-        <v>454</v>
-      </c>
       <c r="D74">
         <v>0.18803700000000001</v>
       </c>
@@ -18704,12 +18626,6 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0.22015399999999999</v>
-      </c>
-      <c r="B75">
-        <v>456</v>
-      </c>
       <c r="D75">
         <v>0.18814400000000001</v>
       </c>
@@ -18718,12 +18634,6 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>0.22117300000000001</v>
-      </c>
-      <c r="B76">
-        <v>459</v>
-      </c>
       <c r="D76">
         <v>0.188252</v>
       </c>
@@ -18732,12 +18642,6 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>0.22220699999999999</v>
-      </c>
-      <c r="B77">
-        <v>462</v>
-      </c>
       <c r="D77">
         <v>0.188585</v>
       </c>
@@ -18746,12 +18650,6 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>0.22290499999999999</v>
-      </c>
-      <c r="B78">
-        <v>464</v>
-      </c>
       <c r="D78">
         <v>0.18870000000000001</v>
       </c>
@@ -18760,12 +18658,6 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.22325600000000001</v>
-      </c>
-      <c r="B79">
-        <v>465</v>
-      </c>
       <c r="D79">
         <v>0.18893299999999999</v>
       </c>
@@ -18774,12 +18666,6 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>0.22396199999999999</v>
-      </c>
-      <c r="B80">
-        <v>467</v>
-      </c>
       <c r="D80">
         <v>0.18929599999999999</v>
       </c>
@@ -18787,53 +18673,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>0.22431799999999999</v>
-      </c>
-      <c r="B81">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>0.22941800000000001</v>
-      </c>
-      <c r="B82">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>0.226854</v>
-      </c>
-      <c r="B83">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>0.22759199999999999</v>
-      </c>
-      <c r="B84">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0.22256300000000001</v>
-      </c>
-      <c r="B85">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>0.229467</v>
-      </c>
-      <c r="B86">
-        <v>482</v>
-      </c>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>0.190197</v>
       </c>
@@ -18841,7 +18681,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>0.190333</v>
       </c>
@@ -18849,7 +18689,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>0.190748</v>
       </c>
@@ -18857,7 +18697,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>0.190889</v>
       </c>
@@ -18865,7 +18705,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>0.19103200000000001</v>
       </c>
@@ -18873,7 +18713,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>0.19117700000000001</v>
       </c>
@@ -18881,7 +18721,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>0.19132399999999999</v>
       </c>
@@ -18889,7 +18729,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>0.19223599999999999</v>
       </c>
@@ -19394,6 +19234,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -19404,7 +19247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
@@ -27282,6 +27125,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27504,38 +27364,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27558,9 +27390,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 3\NaCl - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DDF8F-99FD-4424-A8E0-609DDB99D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{958DDF8F-99FD-4424-A8E0-609DDB99D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E546A5-B282-449C-A840-D280ABBADAD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" activeTab="2" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="703" firstSheet="1" activeTab="3" xr2:uid="{9DFE0107-BC4E-407A-BE20-9B76093381D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Graph - Paper" sheetId="2" r:id="rId1"/>
@@ -7345,72 +7345,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Fig 2.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot for NaCl for n=3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25009097222222215"/>
-          <c:y val="0.92171620370370366"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -13871,9 +13806,9 @@
       <selection sqref="A1:B206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.166354</v>
       </c>
@@ -13881,7 +13816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.161664</v>
       </c>
@@ -13889,7 +13824,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.15679399999999999</v>
       </c>
@@ -13897,7 +13832,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.15174399999999999</v>
       </c>
@@ -13905,7 +13840,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.14651500000000001</v>
       </c>
@@ -13913,7 +13848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.14110500000000001</v>
       </c>
@@ -13921,7 +13856,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.135515</v>
       </c>
@@ -13929,7 +13864,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.129746</v>
       </c>
@@ -13937,7 +13872,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.123796</v>
       </c>
@@ -13945,7 +13880,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.11766699999999999</v>
       </c>
@@ -13953,7 +13888,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.111357</v>
       </c>
@@ -13961,7 +13896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -13969,7 +13904,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -13977,7 +13912,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.5022500000000006E-2</v>
       </c>
@@ -13985,7 +13920,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -13993,7 +13928,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -14001,7 +13936,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -14009,7 +13944,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -14017,7 +13952,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.04365E-2</v>
       </c>
@@ -14025,7 +13960,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.66723E-2</v>
       </c>
@@ -14033,7 +13968,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.8449499999999998E-2</v>
       </c>
@@ -14041,7 +13976,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2.9701600000000002E-2</v>
       </c>
@@ -14049,7 +13984,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2.1536199999999998E-2</v>
       </c>
@@ -14057,7 +13992,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.2898099999999999E-2</v>
       </c>
@@ -14065,7 +14000,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16370000000000001</v>
       </c>
@@ -14073,7 +14008,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.15389</v>
       </c>
@@ -14081,7 +14016,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.15493499999999999</v>
       </c>
@@ -14089,7 +14024,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.155998</v>
       </c>
@@ -14097,7 +14032,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.157079</v>
       </c>
@@ -14105,7 +14040,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.15817800000000001</v>
       </c>
@@ -14113,7 +14048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.15929499999999999</v>
       </c>
@@ -14121,7 +14056,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.16042999999999999</v>
       </c>
@@ -14129,7 +14064,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.161583</v>
       </c>
@@ -14137,7 +14072,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.16561600000000001</v>
       </c>
@@ -14145,7 +14080,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.16514999999999999</v>
       </c>
@@ -14153,7 +14088,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.168878</v>
       </c>
@@ -14161,7 +14096,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.170157</v>
       </c>
@@ -14169,7 +14104,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.17276900000000001</v>
       </c>
@@ -14177,7 +14112,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.17410200000000001</v>
       </c>
@@ -14185,7 +14120,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.175453</v>
       </c>
@@ -14193,7 +14128,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.17682200000000001</v>
       </c>
@@ -14201,7 +14136,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.17820900000000001</v>
       </c>
@@ -14209,7 +14144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.179614</v>
       </c>
@@ -14217,7 +14152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.185054</v>
       </c>
@@ -14225,7 +14160,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18490500000000001</v>
       </c>
@@ -14233,7 +14168,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.18493999999999999</v>
       </c>
@@ -14241,7 +14176,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.18501300000000001</v>
       </c>
@@ -14249,7 +14184,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185053</v>
       </c>
@@ -14257,7 +14192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.185136</v>
       </c>
@@ -14265,7 +14200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18518000000000001</v>
       </c>
@@ -14273,7 +14208,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.185225</v>
       </c>
@@ -14281,7 +14216,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.18527299999999999</v>
       </c>
@@ -14289,7 +14224,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18532100000000001</v>
       </c>
@@ -14297,7 +14232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18542400000000001</v>
       </c>
@@ -14305,7 +14240,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.185477</v>
       </c>
@@ -14313,7 +14248,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.185533</v>
       </c>
@@ -14321,7 +14256,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18532199999999999</v>
       </c>
@@ -14329,7 +14264,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18564800000000001</v>
       </c>
@@ -14337,7 +14272,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.18570800000000001</v>
       </c>
@@ -14345,7 +14280,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18576899999999999</v>
       </c>
@@ -14353,7 +14288,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.185833</v>
       </c>
@@ -14361,7 +14296,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.18589700000000001</v>
       </c>
@@ -14369,7 +14304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186032</v>
       </c>
@@ -14377,7 +14312,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18610099999999999</v>
       </c>
@@ -14385,7 +14320,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18617300000000001</v>
       </c>
@@ -14393,7 +14328,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18624499999999999</v>
       </c>
@@ -14401,7 +14336,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.186473</v>
       </c>
@@ -14409,7 +14344,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.186553</v>
       </c>
@@ -14417,7 +14352,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.18671599999999999</v>
       </c>
@@ -14425,7 +14360,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18706100000000001</v>
       </c>
@@ -14433,7 +14368,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18715200000000001</v>
       </c>
@@ -14441,7 +14376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.18724399999999999</v>
       </c>
@@ -14449,7 +14384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18732599999999999</v>
       </c>
@@ -14457,7 +14392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18743299999999999</v>
       </c>
@@ -14465,7 +14400,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.187529</v>
       </c>
@@ -14473,7 +14408,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.18772800000000001</v>
       </c>
@@ -14481,7 +14416,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.187829</v>
       </c>
@@ -14489,7 +14424,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.188252</v>
       </c>
@@ -14497,7 +14432,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.188361</v>
       </c>
@@ -14505,7 +14440,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.188585</v>
       </c>
@@ -14513,7 +14448,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18870000000000001</v>
       </c>
@@ -14521,7 +14456,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18881600000000001</v>
       </c>
@@ -14529,7 +14464,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.18893299999999999</v>
       </c>
@@ -14537,7 +14472,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.189053</v>
       </c>
@@ -14545,7 +14480,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.18917300000000001</v>
       </c>
@@ -14553,7 +14488,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.18942000000000001</v>
       </c>
@@ -14561,7 +14496,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.18954499999999999</v>
       </c>
@@ -14569,7 +14504,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.18967200000000001</v>
       </c>
@@ -14577,7 +14512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.189801</v>
       </c>
@@ -14585,7 +14520,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.18993199999999999</v>
       </c>
@@ -14593,7 +14528,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19006400000000001</v>
       </c>
@@ -14601,7 +14536,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.190197</v>
       </c>
@@ -14609,7 +14544,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.188471</v>
       </c>
@@ -14617,7 +14552,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.190469</v>
       </c>
@@ -14625,7 +14560,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.190608</v>
       </c>
@@ -14633,7 +14568,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.190748</v>
       </c>
@@ -14641,7 +14576,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.190889</v>
       </c>
@@ -14649,7 +14584,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19117700000000001</v>
       </c>
@@ -14657,7 +14592,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19132399999999999</v>
       </c>
@@ -14665,7 +14600,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.191472</v>
       </c>
@@ -14673,7 +14608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19192500000000001</v>
       </c>
@@ -14681,7 +14616,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.192713</v>
       </c>
@@ -14689,7 +14624,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19287599999999999</v>
       </c>
@@ -14697,7 +14632,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.19303999999999999</v>
       </c>
@@ -14705,7 +14640,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19320499999999999</v>
       </c>
@@ -14713,7 +14648,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.19354099999999999</v>
       </c>
@@ -14721,7 +14656,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.193712</v>
       </c>
@@ -14729,7 +14664,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.193884</v>
       </c>
@@ -14737,7 +14672,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.19405700000000001</v>
       </c>
@@ -14745,7 +14680,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.19423199999999999</v>
       </c>
@@ -14753,7 +14688,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.194409</v>
       </c>
@@ -14761,7 +14696,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.19458700000000001</v>
       </c>
@@ -14769,7 +14704,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.194767</v>
       </c>
@@ -14777,7 +14712,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.19494900000000001</v>
       </c>
@@ -14785,7 +14720,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.195132</v>
       </c>
@@ -14793,7 +14728,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19531699999999999</v>
       </c>
@@ -14801,7 +14736,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.19550300000000001</v>
       </c>
@@ -14809,7 +14744,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.195881</v>
       </c>
@@ -14817,7 +14752,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.196072</v>
       </c>
@@ -14825,7 +14760,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.196265</v>
       </c>
@@ -14833,7 +14768,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19645899999999999</v>
       </c>
@@ -14841,7 +14776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.196655</v>
       </c>
@@ -14849,7 +14784,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.196853</v>
       </c>
@@ -14857,7 +14792,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.19725300000000001</v>
       </c>
@@ -14865,7 +14800,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.19745499999999999</v>
       </c>
@@ -14873,7 +14808,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.197659</v>
       </c>
@@ -14881,7 +14816,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.19786500000000001</v>
       </c>
@@ -14889,7 +14824,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.198072</v>
       </c>
@@ -14897,7 +14832,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.19828100000000001</v>
       </c>
@@ -14905,7 +14840,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.198491</v>
       </c>
@@ -14913,7 +14848,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.19870299999999999</v>
       </c>
@@ -14921,7 +14856,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.19891700000000001</v>
       </c>
@@ -14929,7 +14864,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.199349</v>
       </c>
@@ -14937,7 +14872,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.19956699999999999</v>
       </c>
@@ -14945,7 +14880,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20000899999999999</v>
       </c>
@@ -14953,7 +14888,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.20023199999999999</v>
       </c>
@@ -14961,7 +14896,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.20091100000000001</v>
       </c>
@@ -14969,7 +14904,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20114099999999999</v>
       </c>
@@ -14977,7 +14912,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.201372</v>
       </c>
@@ -14985,7 +14920,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20160500000000001</v>
       </c>
@@ -14993,7 +14928,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.20183899999999999</v>
       </c>
@@ -15001,7 +14936,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.202075</v>
       </c>
@@ -15009,7 +14944,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.20231299999999999</v>
       </c>
@@ -15017,7 +14952,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20303499999999999</v>
       </c>
@@ -15025,7 +14960,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.20352500000000001</v>
       </c>
@@ -15033,7 +14968,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.20377200000000001</v>
       </c>
@@ -15041,7 +14976,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.20427100000000001</v>
       </c>
@@ -15049,7 +14984,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.20452300000000001</v>
       </c>
@@ -15057,7 +14992,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.20477699999999999</v>
       </c>
@@ -15065,7 +15000,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.20503199999999999</v>
       </c>
@@ -15073,7 +15008,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.205289</v>
       </c>
@@ -15081,7 +15016,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.206069</v>
       </c>
@@ -15089,7 +15024,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.20633199999999999</v>
       </c>
@@ -15097,7 +15032,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.206597</v>
       </c>
@@ -15105,7 +15040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.20713100000000001</v>
       </c>
@@ -15113,7 +15048,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.207401</v>
       </c>
@@ -15121,7 +15056,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.207672</v>
       </c>
@@ -15129,7 +15064,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.20821899999999999</v>
       </c>
@@ -15137,7 +15072,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.20849500000000001</v>
       </c>
@@ -15145,7 +15080,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.20877299999999999</v>
       </c>
@@ -15153,7 +15088,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.20905199999999999</v>
       </c>
@@ -15161,7 +15096,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.20933299999999999</v>
       </c>
@@ -15169,7 +15104,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.209615</v>
       </c>
@@ -15177,7 +15112,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.209899</v>
       </c>
@@ -15185,7 +15120,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.21047199999999999</v>
       </c>
@@ -15193,7 +15128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.21105099999999999</v>
       </c>
@@ -15201,7 +15136,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.21163599999999999</v>
       </c>
@@ -15209,7 +15144,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.21193200000000001</v>
       </c>
@@ -15217,7 +15152,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.21252699999999999</v>
       </c>
@@ -15225,7 +15160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.21282699999999999</v>
       </c>
@@ -15233,7 +15168,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.21312800000000001</v>
       </c>
@@ -15241,7 +15176,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.21404300000000001</v>
       </c>
@@ -15249,7 +15184,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.214972</v>
       </c>
@@ -15257,7 +15192,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.215284</v>
       </c>
@@ -15265,7 +15200,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.21559900000000001</v>
       </c>
@@ -15273,7 +15208,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.21623200000000001</v>
       </c>
@@ -15281,7 +15216,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.21655199999999999</v>
       </c>
@@ -15289,7 +15224,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.21687200000000001</v>
       </c>
@@ -15297,7 +15232,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.217195</v>
       </c>
@@ -15305,7 +15240,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.21751899999999999</v>
       </c>
@@ -15313,7 +15248,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.218171</v>
       </c>
@@ -15321,7 +15256,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.2185</v>
       </c>
@@ -15329,7 +15264,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.218831</v>
       </c>
@@ -15337,7 +15272,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.219163</v>
       </c>
@@ -15345,7 +15280,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.219831</v>
       </c>
@@ -15353,7 +15288,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.220168</v>
       </c>
@@ -15361,7 +15296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22084699999999999</v>
       </c>
@@ -15369,7 +15304,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.221188</v>
       </c>
@@ -15377,7 +15312,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.221051</v>
       </c>
@@ -15385,7 +15320,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.22257099999999999</v>
       </c>
@@ -15393,7 +15328,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.22292000000000001</v>
       </c>
@@ -15401,7 +15336,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.22362399999999999</v>
       </c>
@@ -15409,7 +15344,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.22397800000000001</v>
       </c>
@@ -15417,7 +15352,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.224692</v>
       </c>
@@ -15425,7 +15360,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.225051</v>
       </c>
@@ -15433,7 +15368,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.225412</v>
       </c>
@@ -15441,7 +15376,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.225774</v>
       </c>
@@ -15449,7 +15384,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.22613800000000001</v>
       </c>
@@ -15457,7 +15392,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.224855</v>
       </c>
@@ -15465,7 +15400,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.22724</v>
       </c>
@@ -15473,7 +15408,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0.22798199999999999</v>
       </c>
@@ -15481,7 +15416,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0.228356</v>
       </c>
@@ -15489,7 +15424,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0.22873099999999999</v>
       </c>
@@ -15497,7 +15432,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0.22910800000000001</v>
       </c>
@@ -15505,7 +15440,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0.229486</v>
       </c>
@@ -15513,7 +15448,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0.22986599999999999</v>
       </c>
@@ -15535,12 +15470,12 @@
       <selection activeCell="J4" sqref="J4:K68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -15548,7 +15483,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.15353E-2</v>
       </c>
@@ -15565,7 +15500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.9703E-2</v>
       </c>
@@ -15573,7 +15508,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8424600000000003E-2</v>
       </c>
@@ -15599,7 +15534,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.66723E-2</v>
       </c>
@@ -15625,7 +15560,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6.2159499999999999E-2</v>
       </c>
@@ -15651,7 +15586,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6.9725899999999993E-2</v>
       </c>
@@ -15677,7 +15612,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.7113399999999999E-2</v>
       </c>
@@ -15703,7 +15638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.4321599999999997E-2</v>
       </c>
@@ -15729,7 +15664,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.1350200000000006E-2</v>
       </c>
@@ -15755,7 +15690,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.8199099999999998E-2</v>
       </c>
@@ -15781,7 +15716,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104868</v>
       </c>
@@ -15801,7 +15736,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.111357</v>
       </c>
@@ -15821,7 +15756,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.11766699999999999</v>
       </c>
@@ -15841,7 +15776,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.123796</v>
       </c>
@@ -15861,7 +15796,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.129746</v>
       </c>
@@ -15881,7 +15816,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.135515</v>
       </c>
@@ -15901,7 +15836,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.14110500000000001</v>
       </c>
@@ -15921,7 +15856,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.14651500000000001</v>
       </c>
@@ -15941,7 +15876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.15174399999999999</v>
       </c>
@@ -15961,7 +15896,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.16042999999999999</v>
       </c>
@@ -15981,7 +15916,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.161583</v>
       </c>
@@ -16001,7 +15936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.16275400000000001</v>
       </c>
@@ -16021,7 +15956,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.16394300000000001</v>
       </c>
@@ -16035,7 +15970,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.16514999999999999</v>
       </c>
@@ -16049,7 +15984,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.166375</v>
       </c>
@@ -16063,7 +15998,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.16761699999999999</v>
       </c>
@@ -16077,7 +16012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.170157</v>
       </c>
@@ -16094,7 +16029,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.171454</v>
       </c>
@@ -16108,7 +16043,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.17276900000000001</v>
       </c>
@@ -16122,7 +16057,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.17410200000000001</v>
       </c>
@@ -16136,7 +16071,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.175453</v>
       </c>
@@ -16150,7 +16085,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.17682200000000001</v>
       </c>
@@ -16164,7 +16099,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.179614</v>
       </c>
@@ -16178,7 +16113,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.179614</v>
       </c>
@@ -16192,7 +16127,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.184976</v>
       </c>
@@ -16206,7 +16141,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18501400000000001</v>
       </c>
@@ -16220,7 +16155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.185053</v>
       </c>
@@ -16234,7 +16169,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.18509400000000001</v>
       </c>
@@ -16248,7 +16183,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.18518000000000001</v>
       </c>
@@ -16262,7 +16197,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.185226</v>
       </c>
@@ -16276,7 +16211,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.18527299999999999</v>
       </c>
@@ -16290,7 +16225,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.18532199999999999</v>
       </c>
@@ -16304,7 +16239,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.18537200000000001</v>
       </c>
@@ -16318,7 +16253,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.18542400000000001</v>
       </c>
@@ -16332,7 +16267,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.185477</v>
       </c>
@@ -16346,7 +16281,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.185533</v>
       </c>
@@ -16360,7 +16295,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.185589</v>
       </c>
@@ -16374,7 +16309,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.18564800000000001</v>
       </c>
@@ -16388,7 +16323,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.18570800000000001</v>
       </c>
@@ -16402,7 +16337,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.18576899999999999</v>
       </c>
@@ -16416,7 +16351,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.185833</v>
       </c>
@@ -16430,7 +16365,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.18589700000000001</v>
       </c>
@@ -16444,7 +16379,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.18596399999999999</v>
       </c>
@@ -16458,7 +16393,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.18617300000000001</v>
       </c>
@@ -16472,7 +16407,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.18624499999999999</v>
       </c>
@@ -16486,7 +16421,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.18632000000000001</v>
       </c>
@@ -16500,7 +16435,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.18639600000000001</v>
       </c>
@@ -16514,7 +16449,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.186553</v>
       </c>
@@ -16528,7 +16463,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.18671599999999999</v>
       </c>
@@ -16542,7 +16477,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.18679999999999999</v>
       </c>
@@ -16556,7 +16491,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.186885</v>
       </c>
@@ -16570,7 +16505,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.186973</v>
       </c>
@@ -16584,7 +16519,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.18706100000000001</v>
       </c>
@@ -16598,7 +16533,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.18715200000000001</v>
       </c>
@@ -16612,7 +16547,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.18724399999999999</v>
       </c>
@@ -16626,7 +16561,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.187337</v>
       </c>
@@ -16640,7 +16575,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.18743299999999999</v>
       </c>
@@ -16654,7 +16589,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.187529</v>
       </c>
@@ -16662,7 +16597,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.18762799999999999</v>
       </c>
@@ -16670,7 +16605,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.18772800000000001</v>
       </c>
@@ -16678,7 +16613,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.187829</v>
       </c>
@@ -16686,7 +16621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.18803700000000001</v>
       </c>
@@ -16694,7 +16629,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.18814400000000001</v>
       </c>
@@ -16702,7 +16637,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.188252</v>
       </c>
@@ -16710,7 +16645,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.188585</v>
       </c>
@@ -16718,7 +16653,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.18870000000000001</v>
       </c>
@@ -16726,7 +16661,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.18893299999999999</v>
       </c>
@@ -16734,7 +16669,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.18929599999999999</v>
       </c>
@@ -16742,7 +16677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.18942000000000001</v>
       </c>
@@ -16750,7 +16685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.18954499999999999</v>
       </c>
@@ -16758,7 +16693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.18967300000000001</v>
       </c>
@@ -16766,7 +16701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.189801</v>
       </c>
@@ -16774,7 +16709,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.18993199999999999</v>
       </c>
@@ -16782,7 +16717,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.190197</v>
       </c>
@@ -16790,7 +16725,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.190333</v>
       </c>
@@ -16798,7 +16733,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.190748</v>
       </c>
@@ -16806,7 +16741,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.190889</v>
       </c>
@@ -16814,7 +16749,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.19103200000000001</v>
       </c>
@@ -16822,7 +16757,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.19117700000000001</v>
       </c>
@@ -16830,7 +16765,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.19132399999999999</v>
       </c>
@@ -16838,7 +16773,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.19162100000000001</v>
       </c>
@@ -16846,7 +16781,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.191772</v>
       </c>
@@ -16854,7 +16789,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.19192500000000001</v>
       </c>
@@ -16862,7 +16797,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.19223599999999999</v>
       </c>
@@ -16870,7 +16805,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.19239300000000001</v>
       </c>
@@ -16878,7 +16813,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.19287599999999999</v>
       </c>
@@ -16886,7 +16821,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.19303999999999999</v>
       </c>
@@ -16894,7 +16829,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.19320499999999999</v>
       </c>
@@ -16902,7 +16837,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.19337199999999999</v>
       </c>
@@ -16910,7 +16845,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0.19354099999999999</v>
       </c>
@@ -16918,7 +16853,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.193712</v>
       </c>
@@ -16926,7 +16861,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.19423199999999999</v>
       </c>
@@ -16934,7 +16869,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0.194409</v>
       </c>
@@ -16942,7 +16877,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.19458800000000001</v>
       </c>
@@ -16950,7 +16885,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.195132</v>
       </c>
@@ -16958,7 +16893,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.19531699999999999</v>
       </c>
@@ -16966,7 +16901,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.19569300000000001</v>
       </c>
@@ -16974,7 +16909,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.195881</v>
       </c>
@@ -16982,7 +16917,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.196072</v>
       </c>
@@ -16990,7 +16925,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.19645899999999999</v>
       </c>
@@ -16998,7 +16933,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.196655</v>
       </c>
@@ -17006,7 +16941,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.19745499999999999</v>
       </c>
@@ -17014,7 +16949,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0.197659</v>
       </c>
@@ -17022,7 +16957,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0.19786500000000001</v>
       </c>
@@ -17030,7 +16965,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0.19828100000000001</v>
       </c>
@@ -17038,7 +16973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.198491</v>
       </c>
@@ -17046,7 +16981,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.19870299999999999</v>
       </c>
@@ -17054,7 +16989,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0.199349</v>
       </c>
@@ -17062,7 +16997,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0.19956699999999999</v>
       </c>
@@ -17070,7 +17005,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0.19978699999999999</v>
       </c>
@@ -17078,7 +17013,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.20000899999999999</v>
       </c>
@@ -17086,7 +17021,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.20023199999999999</v>
       </c>
@@ -17094,7 +17029,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0.200457</v>
       </c>
@@ -17102,7 +17037,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0.200683</v>
       </c>
@@ -17110,7 +17045,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0.20091100000000001</v>
       </c>
@@ -17118,7 +17053,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0.20114099999999999</v>
       </c>
@@ -17126,7 +17061,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.201372</v>
       </c>
@@ -17134,7 +17069,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0.202075</v>
       </c>
@@ -17142,7 +17077,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.20231299999999999</v>
       </c>
@@ -17150,7 +17085,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.20255200000000001</v>
       </c>
@@ -17158,7 +17093,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0.20352500000000001</v>
       </c>
@@ -17166,7 +17101,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0.20377200000000001</v>
       </c>
@@ -17174,7 +17109,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0.20477699999999999</v>
       </c>
@@ -17182,7 +17117,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0.20503199999999999</v>
       </c>
@@ -17190,7 +17125,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0.205289</v>
       </c>
@@ -17198,7 +17133,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.206069</v>
       </c>
@@ -17206,7 +17141,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.20633199999999999</v>
       </c>
@@ -17214,7 +17149,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.20686299999999999</v>
       </c>
@@ -17222,7 +17157,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.20713100000000001</v>
       </c>
@@ -17230,7 +17165,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.207401</v>
       </c>
@@ -17238,7 +17173,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.207672</v>
       </c>
@@ -17246,7 +17181,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.20794499999999999</v>
       </c>
@@ -17254,7 +17189,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.20849500000000001</v>
       </c>
@@ -17262,7 +17197,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.20905199999999999</v>
       </c>
@@ -17270,7 +17205,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.209615</v>
       </c>
@@ -17278,7 +17213,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.209899</v>
       </c>
@@ -17286,7 +17221,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.21018500000000001</v>
       </c>
@@ -17294,7 +17229,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.21105099999999999</v>
       </c>
@@ -17302,7 +17237,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.21134500000000001</v>
       </c>
@@ -17310,7 +17245,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0.21163699999999999</v>
       </c>
@@ -17318,7 +17253,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0.21193200000000001</v>
       </c>
@@ -17326,7 +17261,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.21252699999999999</v>
       </c>
@@ -17334,7 +17269,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0.21282699999999999</v>
       </c>
@@ -17342,7 +17277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.21343200000000001</v>
       </c>
@@ -17350,7 +17285,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.21373600000000001</v>
       </c>
@@ -17358,7 +17293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0.21435100000000001</v>
       </c>
@@ -17366,7 +17301,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0.21465999999999999</v>
       </c>
@@ -17374,7 +17309,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0.214972</v>
       </c>
@@ -17382,7 +17317,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0.215284</v>
       </c>
@@ -17390,7 +17325,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0.21559900000000001</v>
       </c>
@@ -17398,7 +17333,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.21623200000000001</v>
       </c>
@@ -17406,7 +17341,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.21655199999999999</v>
       </c>
@@ -17414,7 +17349,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0.21687200000000001</v>
       </c>
@@ -17422,7 +17357,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.217195</v>
       </c>
@@ -17430,7 +17365,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0.21784400000000001</v>
       </c>
@@ -17438,7 +17373,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0.218171</v>
       </c>
@@ -17446,7 +17381,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0.2185</v>
       </c>
@@ -17454,7 +17389,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.219163</v>
       </c>
@@ -17462,7 +17397,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0.219496</v>
       </c>
@@ -17470,7 +17405,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.220168</v>
       </c>
@@ -17478,7 +17413,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0.22050700000000001</v>
       </c>
@@ -17486,7 +17421,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0.221188</v>
       </c>
@@ -17494,7 +17429,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0.22153100000000001</v>
       </c>
@@ -17502,7 +17437,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0.22187599999999999</v>
       </c>
@@ -17510,7 +17445,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0.222223</v>
       </c>
@@ -17518,7 +17453,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0.22257099999999999</v>
       </c>
@@ -17526,7 +17461,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0.22292000000000001</v>
       </c>
@@ -17534,7 +17469,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.223271</v>
       </c>
@@ -17542,7 +17477,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.22362399999999999</v>
       </c>
@@ -17550,7 +17485,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0.22397900000000001</v>
       </c>
@@ -17558,7 +17493,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.22433400000000001</v>
       </c>
@@ -17566,7 +17501,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0.224692</v>
       </c>
@@ -17574,7 +17509,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0.225412</v>
       </c>
@@ -17582,7 +17517,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0.225774</v>
       </c>
@@ -17590,7 +17525,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0.22613800000000001</v>
       </c>
@@ -17598,7 +17533,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0.22650400000000001</v>
       </c>
@@ -17606,7 +17541,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.22687099999999999</v>
       </c>
@@ -17614,7 +17549,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0.22761000000000001</v>
       </c>
@@ -17622,7 +17557,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.229051</v>
       </c>
@@ -17630,7 +17565,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0.228356</v>
       </c>
@@ -17638,7 +17573,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0.22910800000000001</v>
       </c>
@@ -17646,7 +17581,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.229486</v>
       </c>
@@ -17654,7 +17589,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.22986599999999999</v>
       </c>
@@ -17662,7 +17597,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.23024800000000001</v>
       </c>
@@ -17670,7 +17605,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.230631</v>
       </c>
@@ -17678,7 +17613,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0.231016</v>
       </c>
@@ -17686,7 +17621,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0.23179</v>
       </c>
@@ -17694,7 +17629,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.23218</v>
       </c>
@@ -17702,7 +17637,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.23335800000000001</v>
       </c>
@@ -17720,13 +17655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3D98D-AD52-4A55-9163-EA6265BC6833}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -17734,7 +17669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D2" s="1">
         <v>1.5902699999999999E-2</v>
       </c>
@@ -17743,7 +17678,7 @@
       </c>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.29763E-2</v>
       </c>
@@ -17757,7 +17692,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.1610899999999999E-2</v>
       </c>
@@ -17773,7 +17708,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.0074199999999999E-2</v>
       </c>
@@ -17787,7 +17722,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.40091E-2</v>
       </c>
@@ -17801,7 +17736,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5.4966099999999997E-2</v>
       </c>
@@ -17815,7 +17750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6.2144999999999999E-2</v>
       </c>
@@ -17829,7 +17764,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6.9713899999999995E-2</v>
       </c>
@@ -17843,7 +17778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7.7680799999999994E-2</v>
       </c>
@@ -17857,7 +17792,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.9336499999999994E-2</v>
       </c>
@@ -17871,7 +17806,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.104861</v>
       </c>
@@ -17885,7 +17820,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.12973899999999999</v>
       </c>
@@ -17899,7 +17834,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.15817100000000001</v>
       </c>
@@ -17913,7 +17848,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.15928800000000001</v>
       </c>
@@ -17927,7 +17862,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.16042300000000001</v>
       </c>
@@ -17941,7 +17876,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.16636699999999999</v>
       </c>
@@ -17955,7 +17890,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.16761000000000001</v>
       </c>
@@ -17969,7 +17904,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.16887099999999999</v>
       </c>
@@ -17983,7 +17918,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.18504399999999999</v>
       </c>
@@ -17997,7 +17932,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.18512799999999999</v>
       </c>
@@ -18011,7 +17946,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.18546899999999999</v>
       </c>
@@ -18025,7 +17960,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.18552399999999999</v>
       </c>
@@ -18039,7 +17974,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.1857</v>
       </c>
@@ -18053,7 +17988,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.18576100000000001</v>
       </c>
@@ -18067,7 +18002,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.186164</v>
       </c>
@@ -18081,7 +18016,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.18631200000000001</v>
       </c>
@@ -18095,7 +18030,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.18654399999999999</v>
       </c>
@@ -18109,7 +18044,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.18687699999999999</v>
       </c>
@@ -18123,7 +18058,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.187053</v>
       </c>
@@ -18137,7 +18072,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.187329</v>
       </c>
@@ -18151,7 +18086,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.18752099999999999</v>
       </c>
@@ -18165,7 +18100,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.187719</v>
       </c>
@@ -18173,7 +18108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.18782099999999999</v>
       </c>
@@ -18181,7 +18116,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.18892500000000001</v>
       </c>
@@ -18189,7 +18124,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.18904399999999999</v>
       </c>
@@ -18199,7 +18134,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.18953700000000001</v>
       </c>
@@ -18207,7 +18142,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.189664</v>
       </c>
@@ -18223,7 +18158,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.190881</v>
       </c>
@@ -18237,7 +18172,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.19131500000000001</v>
       </c>
@@ -18251,7 +18186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.19146299999999999</v>
       </c>
@@ -18265,7 +18200,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.19254299999999999</v>
       </c>
@@ -18273,7 +18208,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.19442699999999999</v>
       </c>
@@ -18281,7 +18216,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.19684399999999999</v>
       </c>
@@ -18289,7 +18224,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.197043</v>
       </c>
@@ -18297,7 +18232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.19764999999999999</v>
       </c>
@@ -18305,7 +18240,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.19806299999999999</v>
       </c>
@@ -18313,7 +18248,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.19955800000000001</v>
       </c>
@@ -18327,7 +18262,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.20044699999999999</v>
       </c>
@@ -18341,7 +18276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.20182900000000001</v>
       </c>
@@ -18355,7 +18290,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.203762</v>
       </c>
@@ -18369,7 +18304,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.20502100000000001</v>
       </c>
@@ -18377,7 +18312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.20605799999999999</v>
       </c>
@@ -18385,7 +18320,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.20685200000000001</v>
       </c>
@@ -18393,7 +18328,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.20738999999999999</v>
       </c>
@@ -18401,7 +18336,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.208484</v>
       </c>
@@ -18409,7 +18344,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.20932100000000001</v>
       </c>
@@ -18423,7 +18358,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.21162500000000001</v>
       </c>
@@ -18437,7 +18372,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.212815</v>
       </c>
@@ -18451,7 +18386,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.213419</v>
       </c>
@@ -18465,7 +18400,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.215586</v>
       </c>
@@ -18479,7 +18414,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.21590200000000001</v>
       </c>
@@ -18493,7 +18428,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.21718100000000001</v>
       </c>
@@ -18507,7 +18442,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.21948200000000001</v>
       </c>
@@ -18521,7 +18456,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.22015399999999999</v>
       </c>
@@ -18535,7 +18470,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.22117300000000001</v>
       </c>
@@ -18549,7 +18484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.22220699999999999</v>
       </c>
@@ -18557,7 +18492,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.22290499999999999</v>
       </c>
@@ -18565,7 +18500,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.22325600000000001</v>
       </c>
@@ -18573,7 +18508,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.22396199999999999</v>
       </c>
@@ -18581,7 +18516,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.22431799999999999</v>
       </c>
@@ -18589,7 +18524,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.226854</v>
       </c>
@@ -18603,7 +18538,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.22759199999999999</v>
       </c>
@@ -18617,7 +18552,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.18803700000000001</v>
       </c>
@@ -18625,7 +18560,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.18814400000000001</v>
       </c>
@@ -18633,7 +18568,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.188252</v>
       </c>
@@ -18641,7 +18576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.188585</v>
       </c>
@@ -18649,7 +18584,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.18870000000000001</v>
       </c>
@@ -18657,7 +18592,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.18893299999999999</v>
       </c>
@@ -18665,7 +18600,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>0.18929599999999999</v>
       </c>
@@ -18673,7 +18608,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.190197</v>
       </c>
@@ -18681,7 +18616,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.190333</v>
       </c>
@@ -18689,7 +18624,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.190748</v>
       </c>
@@ -18697,7 +18632,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>0.190889</v>
       </c>
@@ -18705,7 +18640,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>0.19103200000000001</v>
       </c>
@@ -18713,7 +18648,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.19117700000000001</v>
       </c>
@@ -18721,7 +18656,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.19132399999999999</v>
       </c>
@@ -18729,7 +18664,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.19223599999999999</v>
       </c>
@@ -18737,7 +18672,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.19239300000000001</v>
       </c>
@@ -18745,7 +18680,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.19287599999999999</v>
       </c>
@@ -18753,7 +18688,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.19303999999999999</v>
       </c>
@@ -18761,7 +18696,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.19320499999999999</v>
       </c>
@@ -18769,7 +18704,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.19337199999999999</v>
       </c>
@@ -18777,7 +18712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.195132</v>
       </c>
@@ -18785,7 +18720,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.19531699999999999</v>
       </c>
@@ -18793,7 +18728,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.19569300000000001</v>
       </c>
@@ -18801,7 +18736,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.195881</v>
       </c>
@@ -18809,7 +18744,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.196072</v>
       </c>
@@ -18817,7 +18752,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.19645899999999999</v>
       </c>
@@ -18825,7 +18760,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.196655</v>
       </c>
@@ -18833,7 +18768,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.19745499999999999</v>
       </c>
@@ -18841,7 +18776,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.19956699999999999</v>
       </c>
@@ -18849,7 +18784,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.19978699999999999</v>
       </c>
@@ -18857,7 +18792,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.20000899999999999</v>
       </c>
@@ -18865,7 +18800,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.20023199999999999</v>
       </c>
@@ -18873,7 +18808,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.200457</v>
       </c>
@@ -18881,7 +18816,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.200683</v>
       </c>
@@ -18889,7 +18824,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.20091100000000001</v>
       </c>
@@ -18897,7 +18832,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.20114099999999999</v>
       </c>
@@ -18905,7 +18840,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>0.201372</v>
       </c>
@@ -18913,7 +18848,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.20377200000000001</v>
       </c>
@@ -18921,7 +18856,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>0.20477699999999999</v>
       </c>
@@ -18929,7 +18864,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.20713100000000001</v>
       </c>
@@ -18937,7 +18872,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.207401</v>
       </c>
@@ -18945,7 +18880,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.207672</v>
       </c>
@@ -18953,7 +18888,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.20794499999999999</v>
       </c>
@@ -18961,7 +18896,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.20849500000000001</v>
       </c>
@@ -18969,7 +18904,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.21134500000000001</v>
       </c>
@@ -18977,7 +18912,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.21163699999999999</v>
       </c>
@@ -18985,7 +18920,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.21193200000000001</v>
       </c>
@@ -18993,7 +18928,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.21252699999999999</v>
       </c>
@@ -19001,7 +18936,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.21282699999999999</v>
       </c>
@@ -19009,7 +18944,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>0.21343200000000001</v>
       </c>
@@ -19017,7 +18952,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.21373600000000001</v>
       </c>
@@ -19025,7 +18960,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>0.21655199999999999</v>
       </c>
@@ -19033,7 +18968,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>0.21687200000000001</v>
       </c>
@@ -19041,7 +18976,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.217195</v>
       </c>
@@ -19049,7 +18984,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.21784400000000001</v>
       </c>
@@ -19057,7 +18992,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.218171</v>
       </c>
@@ -19065,7 +19000,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>0.2185</v>
       </c>
@@ -19073,7 +19008,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.219163</v>
       </c>
@@ -19081,7 +19016,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.219496</v>
       </c>
@@ -19089,7 +19024,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172">
         <v>0.220168</v>
       </c>
@@ -19097,7 +19032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177">
         <v>0.222223</v>
       </c>
@@ -19105,7 +19040,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D178">
         <v>0.22257099999999999</v>
       </c>
@@ -19113,7 +19048,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179">
         <v>0.22292000000000001</v>
       </c>
@@ -19121,7 +19056,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182">
         <v>0.22397900000000001</v>
       </c>
@@ -19129,7 +19064,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D183">
         <v>0.22433400000000001</v>
       </c>
@@ -19137,7 +19072,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D184">
         <v>0.224692</v>
       </c>
@@ -19145,7 +19080,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D185">
         <v>0.225412</v>
       </c>
@@ -19153,7 +19088,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D186">
         <v>0.225774</v>
       </c>
@@ -19161,7 +19096,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D189">
         <v>0.22687099999999999</v>
       </c>
@@ -19169,7 +19104,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D190">
         <v>0.22761000000000001</v>
       </c>
@@ -19177,7 +19112,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D191">
         <v>0.229051</v>
       </c>
@@ -19185,7 +19120,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D192">
         <v>0.228356</v>
       </c>
@@ -19193,7 +19128,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D195">
         <v>0.22986599999999999</v>
       </c>
@@ -19201,7 +19136,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D196">
         <v>0.23024800000000001</v>
       </c>
@@ -19209,7 +19144,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D199">
         <v>0.23179</v>
       </c>
@@ -19217,7 +19152,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D200">
         <v>0.23218</v>
       </c>
@@ -19225,7 +19160,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D201">
         <v>0.23335800000000001</v>
       </c>
@@ -19247,44 +19182,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView topLeftCell="AP5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="5"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="7.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="5"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="5"/>
-    <col min="25" max="25" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="5"/>
+    <col min="10" max="11" width="8.90625" style="2"/>
+    <col min="12" max="12" width="7.08984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="2"/>
+    <col min="14" max="14" width="11.90625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="5"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="5"/>
+    <col min="25" max="25" width="8.90625" style="5"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="5" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="11" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="5"/>
-    <col min="40" max="42" width="21.5546875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="5"/>
+    <col min="40" max="42" width="21.54296875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
@@ -19303,7 +19238,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
@@ -19326,7 +19261,7 @@
       <c r="AG2" s="2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="3" t="s">
         <v>6</v>
@@ -19349,7 +19284,7 @@
       <c r="AG3" s="2"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -19366,7 +19301,7 @@
       <c r="AG4" s="2"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -19378,7 +19313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -19457,7 +19392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.046</v>
       </c>
@@ -19599,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.046</v>
       </c>
@@ -19737,7 +19672,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.0469999999999999</v>
       </c>
@@ -19881,7 +19816,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.0489999999999999</v>
       </c>
@@ -20025,7 +19960,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.8620000000000001</v>
       </c>
@@ -20171,7 +20106,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.863</v>
       </c>
@@ -20317,7 +20252,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.8640000000000001</v>
       </c>
@@ -20463,7 +20398,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.8680000000000001</v>
       </c>
@@ -20609,7 +20544,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.508</v>
       </c>
@@ -20755,7 +20690,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.5089999999999999</v>
       </c>
@@ -20901,7 +20836,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5089999999999999</v>
       </c>
@@ -21047,7 +20982,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.5099999999999998</v>
       </c>
@@ -21193,7 +21128,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.5110000000000001</v>
       </c>
@@ -21339,7 +21274,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.5129999999999999</v>
       </c>
@@ -21485,7 +21420,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.516</v>
       </c>
@@ -21625,7 +21560,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.0329999999999999</v>
       </c>
@@ -21765,7 +21700,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.0339999999999998</v>
       </c>
@@ -21905,7 +21840,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.0350000000000001</v>
       </c>
@@ -22045,7 +21980,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.036</v>
       </c>
@@ -22185,7 +22120,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.036</v>
       </c>
@@ -22325,7 +22260,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.0390000000000001</v>
       </c>
@@ -22465,7 +22400,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.0430000000000001</v>
       </c>
@@ -22605,7 +22540,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.7250000000000001</v>
       </c>
@@ -22745,7 +22680,7 @@
         <v>2.2000000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.726</v>
       </c>
@@ -22885,7 +22820,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3.7309999999999999</v>
       </c>
@@ -23025,7 +22960,7 @@
         <v>2.4000000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3.738</v>
       </c>
@@ -23157,7 +23092,7 @@
         <v>1.0853999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.883</v>
       </c>
@@ -23289,7 +23224,7 @@
         <v>1.1773</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.8849999999999998</v>
       </c>
@@ -23421,7 +23356,7 @@
         <v>1.1841999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.8860000000000001</v>
       </c>
@@ -23553,7 +23488,7 @@
         <v>1.1852</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.8869999999999996</v>
       </c>
@@ -23685,7 +23620,7 @@
         <v>1.1827000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.8899999999999997</v>
       </c>
@@ -23817,7 +23752,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4.8940000000000001</v>
       </c>
@@ -23949,7 +23884,7 @@
         <v>1.1655</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -24081,7 +24016,7 @@
         <v>1.1509</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.1020000000000003</v>
       </c>
@@ -24213,7 +24148,7 @@
         <v>1.1949000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5.1040000000000001</v>
       </c>
@@ -24345,7 +24280,7 @@
         <v>1.2022999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.1079999999999997</v>
       </c>
@@ -24477,7 +24412,7 @@
         <v>1.1871</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5.1130000000000004</v>
       </c>
@@ -24609,7 +24544,7 @@
         <v>1.1748000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.1189999999999998</v>
       </c>
@@ -24741,7 +24676,7 @@
         <v>1.1572</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5.6459999999999999</v>
       </c>
@@ -24873,7 +24808,7 @@
         <v>1.2384999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5.649</v>
       </c>
@@ -25005,7 +24940,7 @@
         <v>1.2398</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5.6520000000000001</v>
       </c>
@@ -25137,7 +25072,7 @@
         <v>1.2199</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5.6660000000000004</v>
       </c>
@@ -25269,7 +25204,7 @@
         <v>1.1889000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6.1020000000000003</v>
       </c>
@@ -25401,7 +25336,7 @@
         <v>1.2747999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6.1029999999999998</v>
       </c>
@@ -25533,7 +25468,7 @@
         <v>1.2746999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6.1040000000000001</v>
       </c>
@@ -25665,7 +25600,7 @@
         <v>1.2718</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6.1050000000000004</v>
       </c>
@@ -25797,7 +25732,7 @@
         <v>1.2637</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.1079999999999997</v>
       </c>
@@ -25929,7 +25864,7 @@
         <v>1.2503</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6.1120000000000001</v>
       </c>
@@ -26061,7 +25996,7 @@
         <v>1.2353000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6.117</v>
       </c>
@@ -26193,7 +26128,7 @@
         <v>1.2165999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6.12</v>
       </c>
@@ -26325,7 +26260,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6.1210000000000004</v>
       </c>
@@ -26457,7 +26392,7 @@
         <v>1.2742</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6.1219999999999999</v>
       </c>
@@ -26589,7 +26524,7 @@
         <v>1.2719</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6.1230000000000002</v>
       </c>
@@ -26721,7 +26656,7 @@
         <v>1.2626999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6.1260000000000003</v>
       </c>
@@ -26853,7 +26788,7 @@
         <v>1.2495000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6.13</v>
       </c>
@@ -26985,7 +26920,7 @@
         <v>1.2351000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>6.1349999999999998</v>
       </c>
@@ -27125,20 +27060,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27365,14 +27300,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -27385,6 +27312,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -27060,23 +27060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27299,32 +27282,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27341,4 +27316,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2916C75-4C19-4188-B2C0-EA4395DFD1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 3/NaCl - Done/Test_excelsheet for Nacl n=3.xlsx
@@ -13374,6 +13374,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -19182,8 +19186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F8A1AB-BFF5-430E-9520-E03E7C779FAD}">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI16" sqref="BI16"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7:AR62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27060,6 +27064,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c314ee91f914d6b9f0aecae541b0139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="230737ef2c937862393f49b6d101b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -27282,15 +27295,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -27300,6 +27304,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA4EC4D-E87E-4C8F-9C81-4ED6B1AEAD11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27314,14 +27326,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405DF0A9-C376-4838-9583-3C457462BFE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
